--- a/xls/cardLevelUpgradeConfig.xlsx
+++ b/xls/cardLevelUpgradeConfig.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11160" yWindow="0" windowWidth="27765" windowHeight="13650" activeTab="1"/>
+    <workbookView xWindow="13020" yWindow="0" windowWidth="27765" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="@球员升级经验表" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>id[.!][funcInt]</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -161,6 +161,26 @@
   </si>
   <si>
     <t>最高等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级抢断系数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级传球系数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelPassRatio[.][funcInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelStealRatio[.][funcInt]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -610,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -629,6 +649,8 @@
     <col min="9" max="9" width="25.375" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
     <col min="11" max="11" width="20.125" customWidth="1"/>
+    <col min="12" max="12" width="30" customWidth="1"/>
+    <col min="13" max="13" width="23.375" customWidth="1"/>
     <col min="14" max="14" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -663,6 +685,12 @@
       <c r="K1" t="s">
         <v>15</v>
       </c>
+      <c r="L1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="2" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -698,97 +726,152 @@
       <c r="K2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
+      <c r="L2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>2</v>
+      <c r="A3" s="1">
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="2">
-        <v>500</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2">
-        <v>3</v>
-      </c>
-      <c r="G3" s="2">
-        <v>3</v>
-      </c>
-      <c r="H3" s="2">
-        <v>3</v>
-      </c>
-      <c r="I3" s="2">
-        <v>3</v>
-      </c>
-      <c r="J3" s="2">
-        <v>3</v>
-      </c>
-      <c r="K3" s="2">
-        <v>3</v>
-      </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>100</v>
+      </c>
+      <c r="M3" s="2">
+        <v>100</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2">
+        <v>500</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="F4" s="2">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2">
+        <v>3</v>
+      </c>
+      <c r="J4" s="2">
+        <v>3</v>
+      </c>
+      <c r="K4" s="2">
+        <v>3</v>
+      </c>
+      <c r="L4" s="2">
+        <v>100</v>
+      </c>
+      <c r="M4" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C5" s="2">
         <v>800</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D5" s="2">
         <v>2</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E5" s="2">
         <v>2</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F5" s="2">
         <v>2</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G5" s="2">
         <v>2</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H5" s="2">
         <v>2</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I5" s="2">
         <v>2</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J5" s="2">
         <v>2</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K5" s="2">
         <v>2</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="L5" s="2">
+        <v>100</v>
+      </c>
+      <c r="M5" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -801,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/xls/cardLevelUpgradeConfig.xlsx
+++ b/xls/cardLevelUpgradeConfig.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FBG\Server\kbengine\fbgServer\xls\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="13020" yWindow="0" windowWidth="27765" windowHeight="13650"/>
+    <workbookView xWindow="13020" yWindow="30" windowWidth="27765" windowHeight="13620"/>
   </bookViews>
   <sheets>
     <sheet name="@球员升级经验表" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="149">
   <si>
     <t>id[.!][funcInt]</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -43,23 +38,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hoot[.][funcInt]</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>增加射门属性</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -117,26 +95,6 @@
   <si>
     <t>id（等级）</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>级</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -164,10 +122,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>等级抢断系数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -181,6 +135,370 @@
   </si>
   <si>
     <t>levelStealRatio[.][funcInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级</t>
+  </si>
+  <si>
+    <t>2级</t>
+  </si>
+  <si>
+    <t>3级</t>
+  </si>
+  <si>
+    <t>4级</t>
+  </si>
+  <si>
+    <t>5级</t>
+  </si>
+  <si>
+    <t>6级</t>
+  </si>
+  <si>
+    <t>7级</t>
+  </si>
+  <si>
+    <t>8级</t>
+  </si>
+  <si>
+    <t>9级</t>
+  </si>
+  <si>
+    <t>10级</t>
+  </si>
+  <si>
+    <t>11级</t>
+  </si>
+  <si>
+    <t>12级</t>
+  </si>
+  <si>
+    <t>13级</t>
+  </si>
+  <si>
+    <t>14级</t>
+  </si>
+  <si>
+    <t>15级</t>
+  </si>
+  <si>
+    <t>16级</t>
+  </si>
+  <si>
+    <t>17级</t>
+  </si>
+  <si>
+    <t>18级</t>
+  </si>
+  <si>
+    <t>19级</t>
+  </si>
+  <si>
+    <t>20级</t>
+  </si>
+  <si>
+    <t>21级</t>
+  </si>
+  <si>
+    <t>22级</t>
+  </si>
+  <si>
+    <t>23级</t>
+  </si>
+  <si>
+    <t>24级</t>
+  </si>
+  <si>
+    <t>25级</t>
+  </si>
+  <si>
+    <t>26级</t>
+  </si>
+  <si>
+    <t>27级</t>
+  </si>
+  <si>
+    <t>28级</t>
+  </si>
+  <si>
+    <t>29级</t>
+  </si>
+  <si>
+    <t>30级</t>
+  </si>
+  <si>
+    <t>31级</t>
+  </si>
+  <si>
+    <t>32级</t>
+  </si>
+  <si>
+    <t>33级</t>
+  </si>
+  <si>
+    <t>34级</t>
+  </si>
+  <si>
+    <t>35级</t>
+  </si>
+  <si>
+    <t>36级</t>
+  </si>
+  <si>
+    <t>37级</t>
+  </si>
+  <si>
+    <t>38级</t>
+  </si>
+  <si>
+    <t>39级</t>
+  </si>
+  <si>
+    <t>40级</t>
+  </si>
+  <si>
+    <t>41级</t>
+  </si>
+  <si>
+    <t>42级</t>
+  </si>
+  <si>
+    <t>43级</t>
+  </si>
+  <si>
+    <t>44级</t>
+  </si>
+  <si>
+    <t>45级</t>
+  </si>
+  <si>
+    <t>46级</t>
+  </si>
+  <si>
+    <t>47级</t>
+  </si>
+  <si>
+    <t>48级</t>
+  </si>
+  <si>
+    <t>49级</t>
+  </si>
+  <si>
+    <t>50级</t>
+  </si>
+  <si>
+    <t>51级</t>
+  </si>
+  <si>
+    <t>52级</t>
+  </si>
+  <si>
+    <t>53级</t>
+  </si>
+  <si>
+    <t>54级</t>
+  </si>
+  <si>
+    <t>55级</t>
+  </si>
+  <si>
+    <t>56级</t>
+  </si>
+  <si>
+    <t>57级</t>
+  </si>
+  <si>
+    <t>58级</t>
+  </si>
+  <si>
+    <t>59级</t>
+  </si>
+  <si>
+    <t>60级</t>
+  </si>
+  <si>
+    <t>61级</t>
+  </si>
+  <si>
+    <t>62级</t>
+  </si>
+  <si>
+    <t>63级</t>
+  </si>
+  <si>
+    <t>64级</t>
+  </si>
+  <si>
+    <t>65级</t>
+  </si>
+  <si>
+    <t>66级</t>
+  </si>
+  <si>
+    <t>67级</t>
+  </si>
+  <si>
+    <t>68级</t>
+  </si>
+  <si>
+    <t>69级</t>
+  </si>
+  <si>
+    <t>70级</t>
+  </si>
+  <si>
+    <t>71级</t>
+  </si>
+  <si>
+    <t>72级</t>
+  </si>
+  <si>
+    <t>73级</t>
+  </si>
+  <si>
+    <t>74级</t>
+  </si>
+  <si>
+    <t>75级</t>
+  </si>
+  <si>
+    <t>76级</t>
+  </si>
+  <si>
+    <t>77级</t>
+  </si>
+  <si>
+    <t>78级</t>
+  </si>
+  <si>
+    <t>79级</t>
+  </si>
+  <si>
+    <t>80级</t>
+  </si>
+  <si>
+    <t>81级</t>
+  </si>
+  <si>
+    <t>82级</t>
+  </si>
+  <si>
+    <t>83级</t>
+  </si>
+  <si>
+    <t>84级</t>
+  </si>
+  <si>
+    <t>85级</t>
+  </si>
+  <si>
+    <t>86级</t>
+  </si>
+  <si>
+    <t>87级</t>
+  </si>
+  <si>
+    <t>88级</t>
+  </si>
+  <si>
+    <t>89级</t>
+  </si>
+  <si>
+    <t>90级</t>
+  </si>
+  <si>
+    <t>91级</t>
+  </si>
+  <si>
+    <t>92级</t>
+  </si>
+  <si>
+    <t>93级</t>
+  </si>
+  <si>
+    <t>94级</t>
+  </si>
+  <si>
+    <t>95级</t>
+  </si>
+  <si>
+    <t>96级</t>
+  </si>
+  <si>
+    <t>97级</t>
+  </si>
+  <si>
+    <t>98级</t>
+  </si>
+  <si>
+    <t>99级</t>
+  </si>
+  <si>
+    <t>100级</t>
+  </si>
+  <si>
+    <t>101级</t>
+  </si>
+  <si>
+    <t>102级</t>
+  </si>
+  <si>
+    <t>103级</t>
+  </si>
+  <si>
+    <t>104级</t>
+  </si>
+  <si>
+    <t>105级</t>
+  </si>
+  <si>
+    <t>106级</t>
+  </si>
+  <si>
+    <t>107级</t>
+  </si>
+  <si>
+    <t>108级</t>
+  </si>
+  <si>
+    <t>109级</t>
+  </si>
+  <si>
+    <t>110级</t>
+  </si>
+  <si>
+    <t>111级</t>
+  </si>
+  <si>
+    <t>112级</t>
+  </si>
+  <si>
+    <t>113级</t>
+  </si>
+  <si>
+    <t>114级</t>
+  </si>
+  <si>
+    <t>115级</t>
+  </si>
+  <si>
+    <t>116级</t>
+  </si>
+  <si>
+    <t>117级</t>
+  </si>
+  <si>
+    <t>118级</t>
+  </si>
+  <si>
+    <t>119级</t>
+  </si>
+  <si>
+    <t>120级</t>
+  </si>
+  <si>
+    <t>shoot[.][funcInt]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -188,7 +506,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,13 +538,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -253,85 +564,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -344,14 +586,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -386,7 +628,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -421,7 +663,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -630,71 +872,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O6"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:M122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.5" customWidth="1"/>
-    <col min="2" max="2" width="26.125" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="18.75" customWidth="1"/>
-    <col min="6" max="6" width="20.875" customWidth="1"/>
-    <col min="7" max="7" width="19.625" customWidth="1"/>
-    <col min="8" max="8" width="22.75" customWidth="1"/>
-    <col min="9" max="9" width="25.375" customWidth="1"/>
-    <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="20.125" customWidth="1"/>
-    <col min="12" max="12" width="30" customWidth="1"/>
-    <col min="13" max="13" width="23.375" customWidth="1"/>
-    <col min="14" max="14" width="20.125" customWidth="1"/>
+    <col min="1" max="1" width="39.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="30" style="1" customWidth="1"/>
+    <col min="13" max="13" width="23.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="20.125" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -703,175 +947,4955 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1">
+        <v>10</v>
+      </c>
+      <c r="K3" s="1">
+        <v>6</v>
+      </c>
+      <c r="L3" s="1">
+        <v>100</v>
+      </c>
+      <c r="M3" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1">
+        <v>80</v>
+      </c>
+      <c r="D4" s="1">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1">
+        <v>10</v>
+      </c>
+      <c r="K4" s="1">
+        <v>6</v>
+      </c>
+      <c r="L4" s="1">
+        <v>100</v>
+      </c>
+      <c r="M4" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1">
+        <v>170</v>
+      </c>
+      <c r="D5" s="1">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1">
+        <v>7</v>
+      </c>
+      <c r="I5" s="1">
+        <v>7</v>
+      </c>
+      <c r="J5" s="1">
+        <v>10</v>
+      </c>
+      <c r="K5" s="1">
+        <v>6</v>
+      </c>
+      <c r="L5" s="1">
+        <v>100</v>
+      </c>
+      <c r="M5" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1">
+        <v>300</v>
+      </c>
+      <c r="D6" s="1">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1">
+        <v>7</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1">
+        <v>7</v>
+      </c>
+      <c r="I6" s="1">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1">
+        <v>10</v>
+      </c>
+      <c r="K6" s="1">
+        <v>6</v>
+      </c>
+      <c r="L6" s="1">
+        <v>100</v>
+      </c>
+      <c r="M6" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1">
+        <v>490</v>
+      </c>
+      <c r="D7" s="1">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1">
+        <v>7</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4</v>
+      </c>
+      <c r="H7" s="1">
+        <v>7</v>
+      </c>
+      <c r="I7" s="1">
+        <v>7</v>
+      </c>
+      <c r="J7" s="1">
+        <v>10</v>
+      </c>
+      <c r="K7" s="1">
+        <v>6</v>
+      </c>
+      <c r="L7" s="1">
+        <v>100</v>
+      </c>
+      <c r="M7" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="1">
+        <v>740</v>
+      </c>
+      <c r="D8" s="1">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1">
+        <v>7</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4</v>
+      </c>
+      <c r="H8" s="1">
+        <v>7</v>
+      </c>
+      <c r="I8" s="1">
+        <v>7</v>
+      </c>
+      <c r="J8" s="1">
+        <v>10</v>
+      </c>
+      <c r="K8" s="1">
+        <v>6</v>
+      </c>
+      <c r="L8" s="1">
+        <v>100</v>
+      </c>
+      <c r="M8" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1070</v>
+      </c>
+      <c r="D9" s="1">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1">
+        <v>7</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4</v>
+      </c>
+      <c r="H9" s="1">
+        <v>7</v>
+      </c>
+      <c r="I9" s="1">
+        <v>7</v>
+      </c>
+      <c r="J9" s="1">
+        <v>10</v>
+      </c>
+      <c r="K9" s="1">
+        <v>6</v>
+      </c>
+      <c r="L9" s="1">
+        <v>100</v>
+      </c>
+      <c r="M9" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1480</v>
+      </c>
+      <c r="D10" s="1">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1">
+        <v>7</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4</v>
+      </c>
+      <c r="H10" s="1">
+        <v>7</v>
+      </c>
+      <c r="I10" s="1">
+        <v>7</v>
+      </c>
+      <c r="J10" s="1">
+        <v>10</v>
+      </c>
+      <c r="K10" s="1">
+        <v>6</v>
+      </c>
+      <c r="L10" s="1">
+        <v>100</v>
+      </c>
+      <c r="M10" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1990</v>
+      </c>
+      <c r="D11" s="1">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1">
+        <v>7</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4</v>
+      </c>
+      <c r="H11" s="1">
+        <v>7</v>
+      </c>
+      <c r="I11" s="1">
+        <v>7</v>
+      </c>
+      <c r="J11" s="1">
+        <v>10</v>
+      </c>
+      <c r="K11" s="1">
+        <v>6</v>
+      </c>
+      <c r="L11" s="1">
+        <v>100</v>
+      </c>
+      <c r="M11" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4120</v>
+      </c>
+      <c r="D12" s="1">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1">
+        <v>7</v>
+      </c>
+      <c r="F12" s="1">
+        <v>7</v>
+      </c>
+      <c r="G12" s="1">
+        <v>4</v>
+      </c>
+      <c r="H12" s="1">
+        <v>7</v>
+      </c>
+      <c r="I12" s="1">
+        <v>7</v>
+      </c>
+      <c r="J12" s="1">
+        <v>10</v>
+      </c>
+      <c r="K12" s="1">
+        <v>6</v>
+      </c>
+      <c r="L12" s="1">
+        <v>100</v>
+      </c>
+      <c r="M12" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="1">
+        <v>6480</v>
+      </c>
+      <c r="D13" s="1">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1">
+        <v>7</v>
+      </c>
+      <c r="F13" s="1">
+        <v>7</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4</v>
+      </c>
+      <c r="H13" s="1">
+        <v>7</v>
+      </c>
+      <c r="I13" s="1">
+        <v>7</v>
+      </c>
+      <c r="J13" s="1">
+        <v>10</v>
+      </c>
+      <c r="K13" s="1">
+        <v>6</v>
+      </c>
+      <c r="L13" s="1">
+        <v>100</v>
+      </c>
+      <c r="M13" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1">
+        <v>9080</v>
+      </c>
+      <c r="D14" s="1">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1">
+        <v>7</v>
+      </c>
+      <c r="F14" s="1">
+        <v>7</v>
+      </c>
+      <c r="G14" s="1">
+        <v>4</v>
+      </c>
+      <c r="H14" s="1">
+        <v>7</v>
+      </c>
+      <c r="I14" s="1">
+        <v>7</v>
+      </c>
+      <c r="J14" s="1">
+        <v>10</v>
+      </c>
+      <c r="K14" s="1">
+        <v>6</v>
+      </c>
+      <c r="L14" s="1">
+        <v>100</v>
+      </c>
+      <c r="M14" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1">
+        <v>11950</v>
+      </c>
+      <c r="D15" s="1">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1">
+        <v>7</v>
+      </c>
+      <c r="F15" s="1">
+        <v>7</v>
+      </c>
+      <c r="G15" s="1">
+        <v>4</v>
+      </c>
+      <c r="H15" s="1">
+        <v>7</v>
+      </c>
+      <c r="I15" s="1">
+        <v>7</v>
+      </c>
+      <c r="J15" s="1">
+        <v>10</v>
+      </c>
+      <c r="K15" s="1">
+        <v>6</v>
+      </c>
+      <c r="L15" s="1">
+        <v>100</v>
+      </c>
+      <c r="M15" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="1">
+        <v>15100</v>
+      </c>
+      <c r="D16" s="1">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1">
+        <v>7</v>
+      </c>
+      <c r="F16" s="1">
+        <v>7</v>
+      </c>
+      <c r="G16" s="1">
+        <v>4</v>
+      </c>
+      <c r="H16" s="1">
+        <v>7</v>
+      </c>
+      <c r="I16" s="1">
+        <v>7</v>
+      </c>
+      <c r="J16" s="1">
+        <v>10</v>
+      </c>
+      <c r="K16" s="1">
+        <v>6</v>
+      </c>
+      <c r="L16" s="1">
+        <v>100</v>
+      </c>
+      <c r="M16" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="1">
+        <v>18540</v>
+      </c>
+      <c r="D17" s="1">
+        <v>8</v>
+      </c>
+      <c r="E17" s="1">
+        <v>7</v>
+      </c>
+      <c r="F17" s="1">
+        <v>7</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4</v>
+      </c>
+      <c r="H17" s="1">
+        <v>7</v>
+      </c>
+      <c r="I17" s="1">
+        <v>7</v>
+      </c>
+      <c r="J17" s="1">
+        <v>10</v>
+      </c>
+      <c r="K17" s="1">
+        <v>6</v>
+      </c>
+      <c r="L17" s="1">
+        <v>100</v>
+      </c>
+      <c r="M17" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="1">
+        <v>22300</v>
+      </c>
+      <c r="D18" s="1">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1">
+        <v>7</v>
+      </c>
+      <c r="F18" s="1">
+        <v>7</v>
+      </c>
+      <c r="G18" s="1">
+        <v>4</v>
+      </c>
+      <c r="H18" s="1">
+        <v>7</v>
+      </c>
+      <c r="I18" s="1">
+        <v>7</v>
+      </c>
+      <c r="J18" s="1">
+        <v>10</v>
+      </c>
+      <c r="K18" s="1">
+        <v>6</v>
+      </c>
+      <c r="L18" s="1">
+        <v>100</v>
+      </c>
+      <c r="M18" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="1">
+        <v>26390</v>
+      </c>
+      <c r="D19" s="1">
+        <v>8</v>
+      </c>
+      <c r="E19" s="1">
+        <v>7</v>
+      </c>
+      <c r="F19" s="1">
+        <v>7</v>
+      </c>
+      <c r="G19" s="1">
+        <v>4</v>
+      </c>
+      <c r="H19" s="1">
+        <v>7</v>
+      </c>
+      <c r="I19" s="1">
+        <v>7</v>
+      </c>
+      <c r="J19" s="1">
+        <v>10</v>
+      </c>
+      <c r="K19" s="1">
+        <v>6</v>
+      </c>
+      <c r="L19" s="1">
+        <v>100</v>
+      </c>
+      <c r="M19" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="1">
+        <v>30830</v>
+      </c>
+      <c r="D20" s="1">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1">
+        <v>7</v>
+      </c>
+      <c r="F20" s="1">
+        <v>7</v>
+      </c>
+      <c r="G20" s="1">
+        <v>4</v>
+      </c>
+      <c r="H20" s="1">
+        <v>7</v>
+      </c>
+      <c r="I20" s="1">
+        <v>7</v>
+      </c>
+      <c r="J20" s="1">
+        <v>10</v>
+      </c>
+      <c r="K20" s="1">
+        <v>6</v>
+      </c>
+      <c r="L20" s="1">
+        <v>100</v>
+      </c>
+      <c r="M20" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="1">
+        <v>35630</v>
+      </c>
+      <c r="D21" s="1">
+        <v>8</v>
+      </c>
+      <c r="E21" s="1">
+        <v>7</v>
+      </c>
+      <c r="F21" s="1">
+        <v>7</v>
+      </c>
+      <c r="G21" s="1">
+        <v>4</v>
+      </c>
+      <c r="H21" s="1">
+        <v>7</v>
+      </c>
+      <c r="I21" s="1">
+        <v>7</v>
+      </c>
+      <c r="J21" s="1">
+        <v>10</v>
+      </c>
+      <c r="K21" s="1">
+        <v>6</v>
+      </c>
+      <c r="L21" s="1">
+        <v>100</v>
+      </c>
+      <c r="M21" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="1">
+        <v>40810</v>
+      </c>
+      <c r="D22" s="1">
+        <v>8</v>
+      </c>
+      <c r="E22" s="1">
+        <v>7</v>
+      </c>
+      <c r="F22" s="1">
+        <v>7</v>
+      </c>
+      <c r="G22" s="1">
+        <v>4</v>
+      </c>
+      <c r="H22" s="1">
+        <v>7</v>
+      </c>
+      <c r="I22" s="1">
+        <v>7</v>
+      </c>
+      <c r="J22" s="1">
+        <v>10</v>
+      </c>
+      <c r="K22" s="1">
+        <v>6</v>
+      </c>
+      <c r="L22" s="1">
+        <v>100</v>
+      </c>
+      <c r="M22" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="1">
+        <v>46390</v>
+      </c>
+      <c r="D23" s="1">
+        <v>8</v>
+      </c>
+      <c r="E23" s="1">
+        <v>7</v>
+      </c>
+      <c r="F23" s="1">
+        <v>7</v>
+      </c>
+      <c r="G23" s="1">
+        <v>4</v>
+      </c>
+      <c r="H23" s="1">
+        <v>7</v>
+      </c>
+      <c r="I23" s="1">
+        <v>7</v>
+      </c>
+      <c r="J23" s="1">
+        <v>11</v>
+      </c>
+      <c r="K23" s="1">
+        <v>6</v>
+      </c>
+      <c r="L23" s="1">
+        <v>100</v>
+      </c>
+      <c r="M23" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="1">
+        <v>52390</v>
+      </c>
+      <c r="D24" s="1">
+        <v>8</v>
+      </c>
+      <c r="E24" s="1">
+        <v>7</v>
+      </c>
+      <c r="F24" s="1">
+        <v>7</v>
+      </c>
+      <c r="G24" s="1">
+        <v>4</v>
+      </c>
+      <c r="H24" s="1">
+        <v>7</v>
+      </c>
+      <c r="I24" s="1">
+        <v>7</v>
+      </c>
+      <c r="J24" s="1">
+        <v>11</v>
+      </c>
+      <c r="K24" s="1">
+        <v>6</v>
+      </c>
+      <c r="L24" s="1">
+        <v>100</v>
+      </c>
+      <c r="M24" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="1">
+        <v>58820</v>
+      </c>
+      <c r="D25" s="1">
+        <v>8</v>
+      </c>
+      <c r="E25" s="1">
+        <v>7</v>
+      </c>
+      <c r="F25" s="1">
+        <v>7</v>
+      </c>
+      <c r="G25" s="1">
+        <v>4</v>
+      </c>
+      <c r="H25" s="1">
+        <v>7</v>
+      </c>
+      <c r="I25" s="1">
+        <v>7</v>
+      </c>
+      <c r="J25" s="1">
+        <v>11</v>
+      </c>
+      <c r="K25" s="1">
+        <v>6</v>
+      </c>
+      <c r="L25" s="1">
+        <v>100</v>
+      </c>
+      <c r="M25" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="1">
+        <v>65700</v>
+      </c>
+      <c r="D26" s="1">
+        <v>8</v>
+      </c>
+      <c r="E26" s="1">
+        <v>7</v>
+      </c>
+      <c r="F26" s="1">
+        <v>7</v>
+      </c>
+      <c r="G26" s="1">
+        <v>4</v>
+      </c>
+      <c r="H26" s="1">
+        <v>7</v>
+      </c>
+      <c r="I26" s="1">
+        <v>7</v>
+      </c>
+      <c r="J26" s="1">
+        <v>11</v>
+      </c>
+      <c r="K26" s="1">
+        <v>6</v>
+      </c>
+      <c r="L26" s="1">
+        <v>100</v>
+      </c>
+      <c r="M26" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="1">
+        <v>73040</v>
+      </c>
+      <c r="D27" s="1">
+        <v>8</v>
+      </c>
+      <c r="E27" s="1">
+        <v>7</v>
+      </c>
+      <c r="F27" s="1">
+        <v>7</v>
+      </c>
+      <c r="G27" s="1">
+        <v>4</v>
+      </c>
+      <c r="H27" s="1">
+        <v>7</v>
+      </c>
+      <c r="I27" s="1">
+        <v>7</v>
+      </c>
+      <c r="J27" s="1">
+        <v>11</v>
+      </c>
+      <c r="K27" s="1">
+        <v>6</v>
+      </c>
+      <c r="L27" s="1">
+        <v>100</v>
+      </c>
+      <c r="M27" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="1">
+        <v>80870</v>
+      </c>
+      <c r="D28" s="1">
+        <v>8</v>
+      </c>
+      <c r="E28" s="1">
+        <v>7</v>
+      </c>
+      <c r="F28" s="1">
+        <v>7</v>
+      </c>
+      <c r="G28" s="1">
+        <v>4</v>
+      </c>
+      <c r="H28" s="1">
+        <v>7</v>
+      </c>
+      <c r="I28" s="1">
+        <v>7</v>
+      </c>
+      <c r="J28" s="1">
+        <v>11</v>
+      </c>
+      <c r="K28" s="1">
+        <v>6</v>
+      </c>
+      <c r="L28" s="1">
+        <v>100</v>
+      </c>
+      <c r="M28" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="C3" s="1">
+      <c r="B29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="1">
+        <v>89200</v>
+      </c>
+      <c r="D29" s="1">
+        <v>8</v>
+      </c>
+      <c r="E29" s="1">
+        <v>7</v>
+      </c>
+      <c r="F29" s="1">
+        <v>7</v>
+      </c>
+      <c r="G29" s="1">
+        <v>4</v>
+      </c>
+      <c r="H29" s="1">
+        <v>7</v>
+      </c>
+      <c r="I29" s="1">
+        <v>7</v>
+      </c>
+      <c r="J29" s="1">
+        <v>11</v>
+      </c>
+      <c r="K29" s="1">
+        <v>6</v>
+      </c>
+      <c r="L29" s="1">
+        <v>100</v>
+      </c>
+      <c r="M29" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="1">
+        <v>98050</v>
+      </c>
+      <c r="D30" s="1">
+        <v>8</v>
+      </c>
+      <c r="E30" s="1">
+        <v>7</v>
+      </c>
+      <c r="F30" s="1">
+        <v>7</v>
+      </c>
+      <c r="G30" s="1">
+        <v>4</v>
+      </c>
+      <c r="H30" s="1">
+        <v>7</v>
+      </c>
+      <c r="I30" s="1">
+        <v>7</v>
+      </c>
+      <c r="J30" s="1">
+        <v>11</v>
+      </c>
+      <c r="K30" s="1">
+        <v>6</v>
+      </c>
+      <c r="L30" s="1">
+        <v>100</v>
+      </c>
+      <c r="M30" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="1">
+        <v>115410</v>
+      </c>
+      <c r="D31" s="1">
+        <v>8</v>
+      </c>
+      <c r="E31" s="1">
+        <v>7</v>
+      </c>
+      <c r="F31" s="1">
+        <v>7</v>
+      </c>
+      <c r="G31" s="1">
+        <v>4</v>
+      </c>
+      <c r="H31" s="1">
+        <v>7</v>
+      </c>
+      <c r="I31" s="1">
+        <v>7</v>
+      </c>
+      <c r="J31" s="1">
+        <v>11</v>
+      </c>
+      <c r="K31" s="1">
+        <v>6</v>
+      </c>
+      <c r="L31" s="1">
+        <v>100</v>
+      </c>
+      <c r="M31" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="1">
+        <v>133720</v>
+      </c>
+      <c r="D32" s="1">
+        <v>8</v>
+      </c>
+      <c r="E32" s="1">
+        <v>7</v>
+      </c>
+      <c r="F32" s="1">
+        <v>7</v>
+      </c>
+      <c r="G32" s="1">
+        <v>4</v>
+      </c>
+      <c r="H32" s="1">
+        <v>7</v>
+      </c>
+      <c r="I32" s="1">
+        <v>7</v>
+      </c>
+      <c r="J32" s="1">
+        <v>11</v>
+      </c>
+      <c r="K32" s="1">
+        <v>6</v>
+      </c>
+      <c r="L32" s="1">
+        <v>100</v>
+      </c>
+      <c r="M32" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="1">
+        <v>153010</v>
+      </c>
+      <c r="D33" s="1">
+        <v>8</v>
+      </c>
+      <c r="E33" s="1">
+        <v>7</v>
+      </c>
+      <c r="F33" s="1">
+        <v>7</v>
+      </c>
+      <c r="G33" s="1">
+        <v>4</v>
+      </c>
+      <c r="H33" s="1">
+        <v>7</v>
+      </c>
+      <c r="I33" s="1">
+        <v>7</v>
+      </c>
+      <c r="J33" s="1">
+        <v>11</v>
+      </c>
+      <c r="K33" s="1">
+        <v>6</v>
+      </c>
+      <c r="L33" s="1">
+        <v>100</v>
+      </c>
+      <c r="M33" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="1">
+        <v>173310</v>
+      </c>
+      <c r="D34" s="1">
+        <v>8</v>
+      </c>
+      <c r="E34" s="1">
+        <v>7</v>
+      </c>
+      <c r="F34" s="1">
+        <v>7</v>
+      </c>
+      <c r="G34" s="1">
+        <v>4</v>
+      </c>
+      <c r="H34" s="1">
+        <v>7</v>
+      </c>
+      <c r="I34" s="1">
+        <v>7</v>
+      </c>
+      <c r="J34" s="1">
+        <v>11</v>
+      </c>
+      <c r="K34" s="1">
+        <v>6</v>
+      </c>
+      <c r="L34" s="1">
+        <v>100</v>
+      </c>
+      <c r="M34" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="1">
+        <v>194650</v>
+      </c>
+      <c r="D35" s="1">
+        <v>8</v>
+      </c>
+      <c r="E35" s="1">
+        <v>7</v>
+      </c>
+      <c r="F35" s="1">
+        <v>7</v>
+      </c>
+      <c r="G35" s="1">
+        <v>4</v>
+      </c>
+      <c r="H35" s="1">
+        <v>7</v>
+      </c>
+      <c r="I35" s="1">
+        <v>7</v>
+      </c>
+      <c r="J35" s="1">
+        <v>11</v>
+      </c>
+      <c r="K35" s="1">
+        <v>6</v>
+      </c>
+      <c r="L35" s="1">
+        <v>100</v>
+      </c>
+      <c r="M35" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="1">
+        <v>217060</v>
+      </c>
+      <c r="D36" s="1">
+        <v>8</v>
+      </c>
+      <c r="E36" s="1">
+        <v>7</v>
+      </c>
+      <c r="F36" s="1">
+        <v>7</v>
+      </c>
+      <c r="G36" s="1">
+        <v>4</v>
+      </c>
+      <c r="H36" s="1">
+        <v>7</v>
+      </c>
+      <c r="I36" s="1">
+        <v>7</v>
+      </c>
+      <c r="J36" s="1">
+        <v>11</v>
+      </c>
+      <c r="K36" s="1">
+        <v>6</v>
+      </c>
+      <c r="L36" s="1">
+        <v>100</v>
+      </c>
+      <c r="M36" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="1">
+        <v>240560</v>
+      </c>
+      <c r="D37" s="1">
+        <v>8</v>
+      </c>
+      <c r="E37" s="1">
+        <v>7</v>
+      </c>
+      <c r="F37" s="1">
+        <v>7</v>
+      </c>
+      <c r="G37" s="1">
+        <v>4</v>
+      </c>
+      <c r="H37" s="1">
+        <v>7</v>
+      </c>
+      <c r="I37" s="1">
+        <v>7</v>
+      </c>
+      <c r="J37" s="1">
+        <v>11</v>
+      </c>
+      <c r="K37" s="1">
+        <v>6</v>
+      </c>
+      <c r="L37" s="1">
+        <v>100</v>
+      </c>
+      <c r="M37" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="1">
+        <v>265190</v>
+      </c>
+      <c r="D38" s="1">
+        <v>8</v>
+      </c>
+      <c r="E38" s="1">
+        <v>7</v>
+      </c>
+      <c r="F38" s="1">
+        <v>7</v>
+      </c>
+      <c r="G38" s="1">
+        <v>4</v>
+      </c>
+      <c r="H38" s="1">
+        <v>7</v>
+      </c>
+      <c r="I38" s="1">
+        <v>7</v>
+      </c>
+      <c r="J38" s="1">
+        <v>11</v>
+      </c>
+      <c r="K38" s="1">
+        <v>6</v>
+      </c>
+      <c r="L38" s="1">
+        <v>100</v>
+      </c>
+      <c r="M38" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="1">
+        <v>290970</v>
+      </c>
+      <c r="D39" s="1">
+        <v>8</v>
+      </c>
+      <c r="E39" s="1">
+        <v>7</v>
+      </c>
+      <c r="F39" s="1">
+        <v>7</v>
+      </c>
+      <c r="G39" s="1">
+        <v>4</v>
+      </c>
+      <c r="H39" s="1">
+        <v>7</v>
+      </c>
+      <c r="I39" s="1">
+        <v>7</v>
+      </c>
+      <c r="J39" s="1">
+        <v>11</v>
+      </c>
+      <c r="K39" s="1">
+        <v>6</v>
+      </c>
+      <c r="L39" s="1">
+        <v>100</v>
+      </c>
+      <c r="M39" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="1">
+        <v>317930</v>
+      </c>
+      <c r="D40" s="1">
+        <v>8</v>
+      </c>
+      <c r="E40" s="1">
+        <v>7</v>
+      </c>
+      <c r="F40" s="1">
+        <v>7</v>
+      </c>
+      <c r="G40" s="1">
+        <v>4</v>
+      </c>
+      <c r="H40" s="1">
+        <v>7</v>
+      </c>
+      <c r="I40" s="1">
+        <v>7</v>
+      </c>
+      <c r="J40" s="1">
+        <v>11</v>
+      </c>
+      <c r="K40" s="1">
+        <v>6</v>
+      </c>
+      <c r="L40" s="1">
+        <v>100</v>
+      </c>
+      <c r="M40" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="1">
+        <v>346100</v>
+      </c>
+      <c r="D41" s="1">
+        <v>8</v>
+      </c>
+      <c r="E41" s="1">
+        <v>7</v>
+      </c>
+      <c r="F41" s="1">
+        <v>7</v>
+      </c>
+      <c r="G41" s="1">
+        <v>4</v>
+      </c>
+      <c r="H41" s="1">
+        <v>7</v>
+      </c>
+      <c r="I41" s="1">
+        <v>7</v>
+      </c>
+      <c r="J41" s="1">
+        <v>11</v>
+      </c>
+      <c r="K41" s="1">
+        <v>6</v>
+      </c>
+      <c r="L41" s="1">
+        <v>100</v>
+      </c>
+      <c r="M41" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="1">
+        <v>400700</v>
+      </c>
+      <c r="D42" s="1">
+        <v>8</v>
+      </c>
+      <c r="E42" s="1">
+        <v>7</v>
+      </c>
+      <c r="F42" s="1">
+        <v>7</v>
+      </c>
+      <c r="G42" s="1">
+        <v>4</v>
+      </c>
+      <c r="H42" s="1">
+        <v>7</v>
+      </c>
+      <c r="I42" s="1">
+        <v>7</v>
+      </c>
+      <c r="J42" s="1">
+        <v>11</v>
+      </c>
+      <c r="K42" s="1">
+        <v>6</v>
+      </c>
+      <c r="L42" s="1">
+        <v>100</v>
+      </c>
+      <c r="M42" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="1">
+        <v>457580</v>
+      </c>
+      <c r="D43" s="1">
+        <v>8</v>
+      </c>
+      <c r="E43" s="1">
+        <v>7</v>
+      </c>
+      <c r="F43" s="1">
+        <v>7</v>
+      </c>
+      <c r="G43" s="1">
+        <v>4</v>
+      </c>
+      <c r="H43" s="1">
+        <v>7</v>
+      </c>
+      <c r="I43" s="1">
+        <v>7</v>
+      </c>
+      <c r="J43" s="1">
+        <v>11</v>
+      </c>
+      <c r="K43" s="1">
+        <v>6</v>
+      </c>
+      <c r="L43" s="1">
+        <v>100</v>
+      </c>
+      <c r="M43" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="1">
+        <v>516800</v>
+      </c>
+      <c r="D44" s="1">
+        <v>8</v>
+      </c>
+      <c r="E44" s="1">
+        <v>7</v>
+      </c>
+      <c r="F44" s="1">
+        <v>7</v>
+      </c>
+      <c r="G44" s="1">
+        <v>4</v>
+      </c>
+      <c r="H44" s="1">
+        <v>7</v>
+      </c>
+      <c r="I44" s="1">
+        <v>7</v>
+      </c>
+      <c r="J44" s="1">
+        <v>11</v>
+      </c>
+      <c r="K44" s="1">
+        <v>6</v>
+      </c>
+      <c r="L44" s="1">
+        <v>100</v>
+      </c>
+      <c r="M44" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="1">
+        <v>578400</v>
+      </c>
+      <c r="D45" s="1">
+        <v>8</v>
+      </c>
+      <c r="E45" s="1">
+        <v>7</v>
+      </c>
+      <c r="F45" s="1">
+        <v>7</v>
+      </c>
+      <c r="G45" s="1">
+        <v>4</v>
+      </c>
+      <c r="H45" s="1">
+        <v>7</v>
+      </c>
+      <c r="I45" s="1">
+        <v>7</v>
+      </c>
+      <c r="J45" s="1">
+        <v>11</v>
+      </c>
+      <c r="K45" s="1">
+        <v>6</v>
+      </c>
+      <c r="L45" s="1">
+        <v>100</v>
+      </c>
+      <c r="M45" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="1">
+        <v>642440</v>
+      </c>
+      <c r="D46" s="1">
+        <v>8</v>
+      </c>
+      <c r="E46" s="1">
+        <v>7</v>
+      </c>
+      <c r="F46" s="1">
+        <v>7</v>
+      </c>
+      <c r="G46" s="1">
+        <v>4</v>
+      </c>
+      <c r="H46" s="1">
+        <v>7</v>
+      </c>
+      <c r="I46" s="1">
+        <v>7</v>
+      </c>
+      <c r="J46" s="1">
+        <v>11</v>
+      </c>
+      <c r="K46" s="1">
+        <v>6</v>
+      </c>
+      <c r="L46" s="1">
+        <v>100</v>
+      </c>
+      <c r="M46" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="1">
+        <v>722950</v>
+      </c>
+      <c r="D47" s="1">
+        <v>8</v>
+      </c>
+      <c r="E47" s="1">
+        <v>7</v>
+      </c>
+      <c r="F47" s="1">
+        <v>7</v>
+      </c>
+      <c r="G47" s="1">
+        <v>4</v>
+      </c>
+      <c r="H47" s="1">
+        <v>7</v>
+      </c>
+      <c r="I47" s="1">
+        <v>7</v>
+      </c>
+      <c r="J47" s="1">
+        <v>11</v>
+      </c>
+      <c r="K47" s="1">
+        <v>6</v>
+      </c>
+      <c r="L47" s="1">
+        <v>100</v>
+      </c>
+      <c r="M47" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="1">
+        <v>806520</v>
+      </c>
+      <c r="D48" s="1">
+        <v>8</v>
+      </c>
+      <c r="E48" s="1">
+        <v>7</v>
+      </c>
+      <c r="F48" s="1">
+        <v>7</v>
+      </c>
+      <c r="G48" s="1">
+        <v>4</v>
+      </c>
+      <c r="H48" s="1">
+        <v>7</v>
+      </c>
+      <c r="I48" s="1">
+        <v>7</v>
+      </c>
+      <c r="J48" s="1">
+        <v>11</v>
+      </c>
+      <c r="K48" s="1">
+        <v>6</v>
+      </c>
+      <c r="L48" s="1">
+        <v>100</v>
+      </c>
+      <c r="M48" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="1">
+        <v>893190</v>
+      </c>
+      <c r="D49" s="1">
+        <v>8</v>
+      </c>
+      <c r="E49" s="1">
+        <v>7</v>
+      </c>
+      <c r="F49" s="1">
+        <v>7</v>
+      </c>
+      <c r="G49" s="1">
+        <v>4</v>
+      </c>
+      <c r="H49" s="1">
+        <v>7</v>
+      </c>
+      <c r="I49" s="1">
+        <v>7</v>
+      </c>
+      <c r="J49" s="1">
+        <v>11</v>
+      </c>
+      <c r="K49" s="1">
+        <v>6</v>
+      </c>
+      <c r="L49" s="1">
+        <v>100</v>
+      </c>
+      <c r="M49" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="1">
+        <v>983050</v>
+      </c>
+      <c r="D50" s="1">
+        <v>8</v>
+      </c>
+      <c r="E50" s="1">
+        <v>7</v>
+      </c>
+      <c r="F50" s="1">
+        <v>7</v>
+      </c>
+      <c r="G50" s="1">
+        <v>4</v>
+      </c>
+      <c r="H50" s="1">
+        <v>7</v>
+      </c>
+      <c r="I50" s="1">
+        <v>7</v>
+      </c>
+      <c r="J50" s="1">
+        <v>11</v>
+      </c>
+      <c r="K50" s="1">
+        <v>6</v>
+      </c>
+      <c r="L50" s="1">
+        <v>100</v>
+      </c>
+      <c r="M50" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1102990</v>
+      </c>
+      <c r="D51" s="1">
+        <v>8</v>
+      </c>
+      <c r="E51" s="1">
+        <v>7</v>
+      </c>
+      <c r="F51" s="1">
+        <v>7</v>
+      </c>
+      <c r="G51" s="1">
+        <v>4</v>
+      </c>
+      <c r="H51" s="1">
+        <v>7</v>
+      </c>
+      <c r="I51" s="1">
+        <v>7</v>
+      </c>
+      <c r="J51" s="1">
+        <v>11</v>
+      </c>
+      <c r="K51" s="1">
+        <v>6</v>
+      </c>
+      <c r="L51" s="1">
+        <v>100</v>
+      </c>
+      <c r="M51" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1227170</v>
+      </c>
+      <c r="D52" s="1">
+        <v>8</v>
+      </c>
+      <c r="E52" s="1">
+        <v>7</v>
+      </c>
+      <c r="F52" s="1">
+        <v>7</v>
+      </c>
+      <c r="G52" s="1">
+        <v>4</v>
+      </c>
+      <c r="H52" s="1">
+        <v>7</v>
+      </c>
+      <c r="I52" s="1">
+        <v>7</v>
+      </c>
+      <c r="J52" s="1">
+        <v>11</v>
+      </c>
+      <c r="K52" s="1">
+        <v>6</v>
+      </c>
+      <c r="L52" s="1">
+        <v>100</v>
+      </c>
+      <c r="M52" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1355640</v>
+      </c>
+      <c r="D53" s="1">
+        <v>8</v>
+      </c>
+      <c r="E53" s="1">
+        <v>7</v>
+      </c>
+      <c r="F53" s="1">
+        <v>7</v>
+      </c>
+      <c r="G53" s="1">
+        <v>4</v>
+      </c>
+      <c r="H53" s="1">
+        <v>7</v>
+      </c>
+      <c r="I53" s="1">
+        <v>7</v>
+      </c>
+      <c r="J53" s="1">
+        <v>11</v>
+      </c>
+      <c r="K53" s="1">
+        <v>6</v>
+      </c>
+      <c r="L53" s="1">
+        <v>100</v>
+      </c>
+      <c r="M53" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1547910</v>
+      </c>
+      <c r="D54" s="1">
+        <v>8</v>
+      </c>
+      <c r="E54" s="1">
+        <v>7</v>
+      </c>
+      <c r="F54" s="1">
+        <v>7</v>
+      </c>
+      <c r="G54" s="1">
+        <v>4</v>
+      </c>
+      <c r="H54" s="1">
+        <v>7</v>
+      </c>
+      <c r="I54" s="1">
+        <v>7</v>
+      </c>
+      <c r="J54" s="1">
+        <v>11</v>
+      </c>
+      <c r="K54" s="1">
+        <v>6</v>
+      </c>
+      <c r="L54" s="1">
+        <v>100</v>
+      </c>
+      <c r="M54" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1746580</v>
+      </c>
+      <c r="D55" s="1">
+        <v>8</v>
+      </c>
+      <c r="E55" s="1">
+        <v>7</v>
+      </c>
+      <c r="F55" s="1">
+        <v>7</v>
+      </c>
+      <c r="G55" s="1">
+        <v>4</v>
+      </c>
+      <c r="H55" s="1">
+        <v>7</v>
+      </c>
+      <c r="I55" s="1">
+        <v>7</v>
+      </c>
+      <c r="J55" s="1">
+        <v>11</v>
+      </c>
+      <c r="K55" s="1">
+        <v>6</v>
+      </c>
+      <c r="L55" s="1">
+        <v>100</v>
+      </c>
+      <c r="M55" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1951790</v>
+      </c>
+      <c r="D56" s="1">
+        <v>8</v>
+      </c>
+      <c r="E56" s="1">
+        <v>7</v>
+      </c>
+      <c r="F56" s="1">
+        <v>7</v>
+      </c>
+      <c r="G56" s="1">
+        <v>4</v>
+      </c>
+      <c r="H56" s="1">
+        <v>7</v>
+      </c>
+      <c r="I56" s="1">
+        <v>7</v>
+      </c>
+      <c r="J56" s="1">
+        <v>11</v>
+      </c>
+      <c r="K56" s="1">
+        <v>6</v>
+      </c>
+      <c r="L56" s="1">
+        <v>100</v>
+      </c>
+      <c r="M56" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2163620</v>
+      </c>
+      <c r="D57" s="1">
+        <v>8</v>
+      </c>
+      <c r="E57" s="1">
+        <v>7</v>
+      </c>
+      <c r="F57" s="1">
+        <v>7</v>
+      </c>
+      <c r="G57" s="1">
+        <v>4</v>
+      </c>
+      <c r="H57" s="1">
+        <v>7</v>
+      </c>
+      <c r="I57" s="1">
+        <v>7</v>
+      </c>
+      <c r="J57" s="1">
+        <v>11</v>
+      </c>
+      <c r="K57" s="1">
+        <v>6</v>
+      </c>
+      <c r="L57" s="1">
+        <v>100</v>
+      </c>
+      <c r="M57" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" s="1">
+        <v>2382220</v>
+      </c>
+      <c r="D58" s="1">
+        <v>8</v>
+      </c>
+      <c r="E58" s="1">
+        <v>7</v>
+      </c>
+      <c r="F58" s="1">
+        <v>7</v>
+      </c>
+      <c r="G58" s="1">
+        <v>4</v>
+      </c>
+      <c r="H58" s="1">
+        <v>7</v>
+      </c>
+      <c r="I58" s="1">
+        <v>7</v>
+      </c>
+      <c r="J58" s="1">
+        <v>11</v>
+      </c>
+      <c r="K58" s="1">
+        <v>6</v>
+      </c>
+      <c r="L58" s="1">
+        <v>100</v>
+      </c>
+      <c r="M58" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59" s="1">
+        <v>2607660</v>
+      </c>
+      <c r="D59" s="1">
+        <v>8</v>
+      </c>
+      <c r="E59" s="1">
+        <v>7</v>
+      </c>
+      <c r="F59" s="1">
+        <v>7</v>
+      </c>
+      <c r="G59" s="1">
+        <v>4</v>
+      </c>
+      <c r="H59" s="1">
+        <v>7</v>
+      </c>
+      <c r="I59" s="1">
+        <v>7</v>
+      </c>
+      <c r="J59" s="1">
+        <v>11</v>
+      </c>
+      <c r="K59" s="1">
+        <v>6</v>
+      </c>
+      <c r="L59" s="1">
+        <v>100</v>
+      </c>
+      <c r="M59" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="1">
+        <v>2840090</v>
+      </c>
+      <c r="D60" s="1">
+        <v>8</v>
+      </c>
+      <c r="E60" s="1">
+        <v>7</v>
+      </c>
+      <c r="F60" s="1">
+        <v>7</v>
+      </c>
+      <c r="G60" s="1">
+        <v>4</v>
+      </c>
+      <c r="H60" s="1">
+        <v>7</v>
+      </c>
+      <c r="I60" s="1">
+        <v>7</v>
+      </c>
+      <c r="J60" s="1">
+        <v>11</v>
+      </c>
+      <c r="K60" s="1">
+        <v>6</v>
+      </c>
+      <c r="L60" s="1">
+        <v>100</v>
+      </c>
+      <c r="M60" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" s="1">
+        <v>3079580</v>
+      </c>
+      <c r="D61" s="1">
+        <v>8</v>
+      </c>
+      <c r="E61" s="1">
+        <v>7</v>
+      </c>
+      <c r="F61" s="1">
+        <v>7</v>
+      </c>
+      <c r="G61" s="1">
+        <v>4</v>
+      </c>
+      <c r="H61" s="1">
+        <v>7</v>
+      </c>
+      <c r="I61" s="1">
+        <v>7</v>
+      </c>
+      <c r="J61" s="1">
+        <v>11</v>
+      </c>
+      <c r="K61" s="1">
+        <v>6</v>
+      </c>
+      <c r="L61" s="1">
+        <v>100</v>
+      </c>
+      <c r="M61" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62" s="1">
+        <v>3554370</v>
+      </c>
+      <c r="D62" s="1">
+        <v>8</v>
+      </c>
+      <c r="E62" s="1">
+        <v>7</v>
+      </c>
+      <c r="F62" s="1">
+        <v>7</v>
+      </c>
+      <c r="G62" s="1">
+        <v>4</v>
+      </c>
+      <c r="H62" s="1">
+        <v>7</v>
+      </c>
+      <c r="I62" s="1">
+        <v>7</v>
+      </c>
+      <c r="J62" s="1">
+        <v>11</v>
+      </c>
+      <c r="K62" s="1">
+        <v>6</v>
+      </c>
+      <c r="L62" s="1">
+        <v>100</v>
+      </c>
+      <c r="M62" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" s="1">
+        <v>4043110</v>
+      </c>
+      <c r="D63" s="1">
+        <v>8</v>
+      </c>
+      <c r="E63" s="1">
+        <v>7</v>
+      </c>
+      <c r="F63" s="1">
+        <v>7</v>
+      </c>
+      <c r="G63" s="1">
+        <v>4</v>
+      </c>
+      <c r="H63" s="1">
+        <v>7</v>
+      </c>
+      <c r="I63" s="1">
+        <v>7</v>
+      </c>
+      <c r="J63" s="1">
+        <v>11</v>
+      </c>
+      <c r="K63" s="1">
+        <v>6</v>
+      </c>
+      <c r="L63" s="1">
+        <v>100</v>
+      </c>
+      <c r="M63" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64" s="1">
+        <v>4546090</v>
+      </c>
+      <c r="D64" s="1">
+        <v>8</v>
+      </c>
+      <c r="E64" s="1">
+        <v>7</v>
+      </c>
+      <c r="F64" s="1">
+        <v>7</v>
+      </c>
+      <c r="G64" s="1">
+        <v>4</v>
+      </c>
+      <c r="H64" s="1">
+        <v>7</v>
+      </c>
+      <c r="I64" s="1">
+        <v>7</v>
+      </c>
+      <c r="J64" s="1">
+        <v>11</v>
+      </c>
+      <c r="K64" s="1">
+        <v>6</v>
+      </c>
+      <c r="L64" s="1">
+        <v>100</v>
+      </c>
+      <c r="M64" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65" s="1">
+        <v>5063440</v>
+      </c>
+      <c r="D65" s="1">
+        <v>8</v>
+      </c>
+      <c r="E65" s="1">
+        <v>7</v>
+      </c>
+      <c r="F65" s="1">
+        <v>7</v>
+      </c>
+      <c r="G65" s="1">
+        <v>4</v>
+      </c>
+      <c r="H65" s="1">
+        <v>7</v>
+      </c>
+      <c r="I65" s="1">
+        <v>7</v>
+      </c>
+      <c r="J65" s="1">
+        <v>11</v>
+      </c>
+      <c r="K65" s="1">
+        <v>6</v>
+      </c>
+      <c r="L65" s="1">
+        <v>100</v>
+      </c>
+      <c r="M65" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66" s="1">
+        <v>5595450</v>
+      </c>
+      <c r="D66" s="1">
+        <v>8</v>
+      </c>
+      <c r="E66" s="1">
+        <v>7</v>
+      </c>
+      <c r="F66" s="1">
+        <v>7</v>
+      </c>
+      <c r="G66" s="1">
+        <v>4</v>
+      </c>
+      <c r="H66" s="1">
+        <v>7</v>
+      </c>
+      <c r="I66" s="1">
+        <v>7</v>
+      </c>
+      <c r="J66" s="1">
+        <v>11</v>
+      </c>
+      <c r="K66" s="1">
+        <v>6</v>
+      </c>
+      <c r="L66" s="1">
+        <v>100</v>
+      </c>
+      <c r="M66" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67" s="1">
+        <v>6142260</v>
+      </c>
+      <c r="D67" s="1">
+        <v>8</v>
+      </c>
+      <c r="E67" s="1">
+        <v>7</v>
+      </c>
+      <c r="F67" s="1">
+        <v>7</v>
+      </c>
+      <c r="G67" s="1">
+        <v>4</v>
+      </c>
+      <c r="H67" s="1">
+        <v>7</v>
+      </c>
+      <c r="I67" s="1">
+        <v>7</v>
+      </c>
+      <c r="J67" s="1">
+        <v>11</v>
+      </c>
+      <c r="K67" s="1">
+        <v>6</v>
+      </c>
+      <c r="L67" s="1">
+        <v>100</v>
+      </c>
+      <c r="M67" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68" s="1">
+        <v>6704150</v>
+      </c>
+      <c r="D68" s="1">
+        <v>8</v>
+      </c>
+      <c r="E68" s="1">
+        <v>7</v>
+      </c>
+      <c r="F68" s="1">
+        <v>7</v>
+      </c>
+      <c r="G68" s="1">
+        <v>4</v>
+      </c>
+      <c r="H68" s="1">
+        <v>7</v>
+      </c>
+      <c r="I68" s="1">
+        <v>7</v>
+      </c>
+      <c r="J68" s="1">
+        <v>11</v>
+      </c>
+      <c r="K68" s="1">
+        <v>6</v>
+      </c>
+      <c r="L68" s="1">
+        <v>100</v>
+      </c>
+      <c r="M68" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69" s="1">
+        <v>7281260</v>
+      </c>
+      <c r="D69" s="1">
+        <v>8</v>
+      </c>
+      <c r="E69" s="1">
+        <v>7</v>
+      </c>
+      <c r="F69" s="1">
+        <v>7</v>
+      </c>
+      <c r="G69" s="1">
+        <v>4</v>
+      </c>
+      <c r="H69" s="1">
+        <v>7</v>
+      </c>
+      <c r="I69" s="1">
+        <v>7</v>
+      </c>
+      <c r="J69" s="1">
+        <v>11</v>
+      </c>
+      <c r="K69" s="1">
+        <v>6</v>
+      </c>
+      <c r="L69" s="1">
+        <v>100</v>
+      </c>
+      <c r="M69" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70" s="1">
+        <v>8442680</v>
+      </c>
+      <c r="D70" s="1">
+        <v>8</v>
+      </c>
+      <c r="E70" s="1">
+        <v>7</v>
+      </c>
+      <c r="F70" s="1">
+        <v>7</v>
+      </c>
+      <c r="G70" s="1">
+        <v>4</v>
+      </c>
+      <c r="H70" s="1">
+        <v>7</v>
+      </c>
+      <c r="I70" s="1">
+        <v>7</v>
+      </c>
+      <c r="J70" s="1">
+        <v>11</v>
+      </c>
+      <c r="K70" s="1">
+        <v>6</v>
+      </c>
+      <c r="L70" s="1">
+        <v>100</v>
+      </c>
+      <c r="M70" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71" s="1">
+        <v>9634690</v>
+      </c>
+      <c r="D71" s="1">
+        <v>8</v>
+      </c>
+      <c r="E71" s="1">
+        <v>7</v>
+      </c>
+      <c r="F71" s="1">
+        <v>7</v>
+      </c>
+      <c r="G71" s="1">
+        <v>4</v>
+      </c>
+      <c r="H71" s="1">
+        <v>7</v>
+      </c>
+      <c r="I71" s="1">
+        <v>7</v>
+      </c>
+      <c r="J71" s="1">
+        <v>11</v>
+      </c>
+      <c r="K71" s="1">
+        <v>6</v>
+      </c>
+      <c r="L71" s="1">
+        <v>100</v>
+      </c>
+      <c r="M71" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72" s="1">
+        <v>10857840</v>
+      </c>
+      <c r="D72" s="1">
+        <v>8</v>
+      </c>
+      <c r="E72" s="1">
+        <v>7</v>
+      </c>
+      <c r="F72" s="1">
+        <v>7</v>
+      </c>
+      <c r="G72" s="1">
+        <v>4</v>
+      </c>
+      <c r="H72" s="1">
+        <v>7</v>
+      </c>
+      <c r="I72" s="1">
+        <v>7</v>
+      </c>
+      <c r="J72" s="1">
+        <v>11</v>
+      </c>
+      <c r="K72" s="1">
+        <v>6</v>
+      </c>
+      <c r="L72" s="1">
+        <v>100</v>
+      </c>
+      <c r="M72" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73" s="1">
+        <v>12112410</v>
+      </c>
+      <c r="D73" s="1">
+        <v>8</v>
+      </c>
+      <c r="E73" s="1">
+        <v>7</v>
+      </c>
+      <c r="F73" s="1">
+        <v>7</v>
+      </c>
+      <c r="G73" s="1">
+        <v>4</v>
+      </c>
+      <c r="H73" s="1">
+        <v>7</v>
+      </c>
+      <c r="I73" s="1">
+        <v>7</v>
+      </c>
+      <c r="J73" s="1">
+        <v>11</v>
+      </c>
+      <c r="K73" s="1">
+        <v>6</v>
+      </c>
+      <c r="L73" s="1">
+        <v>100</v>
+      </c>
+      <c r="M73" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74" s="1">
+        <v>13398950</v>
+      </c>
+      <c r="D74" s="1">
+        <v>8</v>
+      </c>
+      <c r="E74" s="1">
+        <v>7</v>
+      </c>
+      <c r="F74" s="1">
+        <v>7</v>
+      </c>
+      <c r="G74" s="1">
+        <v>4</v>
+      </c>
+      <c r="H74" s="1">
+        <v>7</v>
+      </c>
+      <c r="I74" s="1">
+        <v>7</v>
+      </c>
+      <c r="J74" s="1">
+        <v>11</v>
+      </c>
+      <c r="K74" s="1">
+        <v>6</v>
+      </c>
+      <c r="L74" s="1">
+        <v>100</v>
+      </c>
+      <c r="M74" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75" s="1">
+        <v>15363430</v>
+      </c>
+      <c r="D75" s="1">
+        <v>8</v>
+      </c>
+      <c r="E75" s="1">
+        <v>7</v>
+      </c>
+      <c r="F75" s="1">
+        <v>7</v>
+      </c>
+      <c r="G75" s="1">
+        <v>4</v>
+      </c>
+      <c r="H75" s="1">
+        <v>7</v>
+      </c>
+      <c r="I75" s="1">
+        <v>7</v>
+      </c>
+      <c r="J75" s="1">
+        <v>11</v>
+      </c>
+      <c r="K75" s="1">
+        <v>6</v>
+      </c>
+      <c r="L75" s="1">
+        <v>100</v>
+      </c>
+      <c r="M75" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76" s="1">
+        <v>17376720</v>
+      </c>
+      <c r="D76" s="1">
+        <v>8</v>
+      </c>
+      <c r="E76" s="1">
+        <v>7</v>
+      </c>
+      <c r="F76" s="1">
+        <v>7</v>
+      </c>
+      <c r="G76" s="1">
+        <v>4</v>
+      </c>
+      <c r="H76" s="1">
+        <v>7</v>
+      </c>
+      <c r="I76" s="1">
+        <v>7</v>
+      </c>
+      <c r="J76" s="1">
+        <v>11</v>
+      </c>
+      <c r="K76" s="1">
+        <v>6</v>
+      </c>
+      <c r="L76" s="1">
+        <v>100</v>
+      </c>
+      <c r="M76" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77" s="1">
+        <v>19439240</v>
+      </c>
+      <c r="D77" s="1">
+        <v>8</v>
+      </c>
+      <c r="E77" s="1">
+        <v>7</v>
+      </c>
+      <c r="F77" s="1">
+        <v>7</v>
+      </c>
+      <c r="G77" s="1">
+        <v>4</v>
+      </c>
+      <c r="H77" s="1">
+        <v>7</v>
+      </c>
+      <c r="I77" s="1">
+        <v>7</v>
+      </c>
+      <c r="J77" s="1">
+        <v>11</v>
+      </c>
+      <c r="K77" s="1">
+        <v>6</v>
+      </c>
+      <c r="L77" s="1">
+        <v>100</v>
+      </c>
+      <c r="M77" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78" s="1">
+        <v>21551800</v>
+      </c>
+      <c r="D78" s="1">
+        <v>8</v>
+      </c>
+      <c r="E78" s="1">
+        <v>7</v>
+      </c>
+      <c r="F78" s="1">
+        <v>7</v>
+      </c>
+      <c r="G78" s="1">
+        <v>4</v>
+      </c>
+      <c r="H78" s="1">
+        <v>7</v>
+      </c>
+      <c r="I78" s="1">
+        <v>7</v>
+      </c>
+      <c r="J78" s="1">
+        <v>11</v>
+      </c>
+      <c r="K78" s="1">
+        <v>6</v>
+      </c>
+      <c r="L78" s="1">
+        <v>100</v>
+      </c>
+      <c r="M78" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79" s="1">
+        <v>23714810</v>
+      </c>
+      <c r="D79" s="1">
+        <v>8</v>
+      </c>
+      <c r="E79" s="1">
+        <v>7</v>
+      </c>
+      <c r="F79" s="1">
+        <v>7</v>
+      </c>
+      <c r="G79" s="1">
+        <v>4</v>
+      </c>
+      <c r="H79" s="1">
+        <v>7</v>
+      </c>
+      <c r="I79" s="1">
+        <v>7</v>
+      </c>
+      <c r="J79" s="1">
+        <v>11</v>
+      </c>
+      <c r="K79" s="1">
+        <v>6</v>
+      </c>
+      <c r="L79" s="1">
+        <v>100</v>
+      </c>
+      <c r="M79" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80" s="1">
+        <v>26656780</v>
+      </c>
+      <c r="D80" s="1">
+        <v>8</v>
+      </c>
+      <c r="E80" s="1">
+        <v>7</v>
+      </c>
+      <c r="F80" s="1">
+        <v>7</v>
+      </c>
+      <c r="G80" s="1">
+        <v>4</v>
+      </c>
+      <c r="H80" s="1">
+        <v>7</v>
+      </c>
+      <c r="I80" s="1">
+        <v>7</v>
+      </c>
+      <c r="J80" s="1">
+        <v>11</v>
+      </c>
+      <c r="K80" s="1">
+        <v>6</v>
+      </c>
+      <c r="L80" s="1">
+        <v>100</v>
+      </c>
+      <c r="M80" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81" s="1">
+        <v>29667390</v>
+      </c>
+      <c r="D81" s="1">
+        <v>8</v>
+      </c>
+      <c r="E81" s="1">
+        <v>7</v>
+      </c>
+      <c r="F81" s="1">
+        <v>7</v>
+      </c>
+      <c r="G81" s="1">
+        <v>4</v>
+      </c>
+      <c r="H81" s="1">
+        <v>7</v>
+      </c>
+      <c r="I81" s="1">
+        <v>7</v>
+      </c>
+      <c r="J81" s="1">
+        <v>11</v>
+      </c>
+      <c r="K81" s="1">
+        <v>6</v>
+      </c>
+      <c r="L81" s="1">
+        <v>100</v>
+      </c>
+      <c r="M81" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82" s="1">
+        <v>32747730</v>
+      </c>
+      <c r="D82" s="1">
+        <v>8</v>
+      </c>
+      <c r="E82" s="1">
+        <v>7</v>
+      </c>
+      <c r="F82" s="1">
+        <v>7</v>
+      </c>
+      <c r="G82" s="1">
+        <v>4</v>
+      </c>
+      <c r="H82" s="1">
+        <v>7</v>
+      </c>
+      <c r="I82" s="1">
+        <v>7</v>
+      </c>
+      <c r="J82" s="1">
+        <v>11</v>
+      </c>
+      <c r="K82" s="1">
+        <v>6</v>
+      </c>
+      <c r="L82" s="1">
+        <v>100</v>
+      </c>
+      <c r="M82" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C83" s="1">
+        <v>35898340</v>
+      </c>
+      <c r="D83" s="1">
+        <v>9</v>
+      </c>
+      <c r="E83" s="1">
+        <v>7</v>
+      </c>
+      <c r="F83" s="1">
+        <v>7</v>
+      </c>
+      <c r="G83" s="1">
+        <v>4</v>
+      </c>
+      <c r="H83" s="1">
+        <v>7</v>
+      </c>
+      <c r="I83" s="1">
+        <v>7</v>
+      </c>
+      <c r="J83" s="1">
+        <v>11</v>
+      </c>
+      <c r="K83" s="1">
+        <v>6</v>
+      </c>
+      <c r="L83" s="1">
+        <v>100</v>
+      </c>
+      <c r="M83" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C84" s="1">
+        <v>39120310</v>
+      </c>
+      <c r="D84" s="1">
+        <v>9</v>
+      </c>
+      <c r="E84" s="1">
+        <v>7</v>
+      </c>
+      <c r="F84" s="1">
+        <v>7</v>
+      </c>
+      <c r="G84" s="1">
+        <v>4</v>
+      </c>
+      <c r="H84" s="1">
+        <v>7</v>
+      </c>
+      <c r="I84" s="1">
+        <v>7</v>
+      </c>
+      <c r="J84" s="1">
+        <v>11</v>
+      </c>
+      <c r="K84" s="1">
+        <v>6</v>
+      </c>
+      <c r="L84" s="1">
+        <v>100</v>
+      </c>
+      <c r="M84" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C85" s="1">
+        <v>42414180</v>
+      </c>
+      <c r="D85" s="1">
+        <v>9</v>
+      </c>
+      <c r="E85" s="1">
+        <v>7</v>
+      </c>
+      <c r="F85" s="1">
+        <v>7</v>
+      </c>
+      <c r="G85" s="1">
+        <v>4</v>
+      </c>
+      <c r="H85" s="1">
+        <v>7</v>
+      </c>
+      <c r="I85" s="1">
+        <v>7</v>
+      </c>
+      <c r="J85" s="1">
+        <v>11</v>
+      </c>
+      <c r="K85" s="1">
+        <v>6</v>
+      </c>
+      <c r="L85" s="1">
+        <v>100</v>
+      </c>
+      <c r="M85" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C86" s="1">
+        <v>45781030</v>
+      </c>
+      <c r="D86" s="1">
+        <v>9</v>
+      </c>
+      <c r="E86" s="1">
+        <v>7</v>
+      </c>
+      <c r="F86" s="1">
+        <v>7</v>
+      </c>
+      <c r="G86" s="1">
+        <v>4</v>
+      </c>
+      <c r="H86" s="1">
+        <v>7</v>
+      </c>
+      <c r="I86" s="1">
+        <v>7</v>
+      </c>
+      <c r="J86" s="1">
+        <v>11</v>
+      </c>
+      <c r="K86" s="1">
+        <v>6</v>
+      </c>
+      <c r="L86" s="1">
+        <v>100</v>
+      </c>
+      <c r="M86" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C87" s="1">
+        <v>50072260</v>
+      </c>
+      <c r="D87" s="1">
+        <v>9</v>
+      </c>
+      <c r="E87" s="1">
+        <v>7</v>
+      </c>
+      <c r="F87" s="1">
+        <v>7</v>
+      </c>
+      <c r="G87" s="1">
+        <v>4</v>
+      </c>
+      <c r="H87" s="1">
+        <v>7</v>
+      </c>
+      <c r="I87" s="1">
+        <v>7</v>
+      </c>
+      <c r="J87" s="1">
+        <v>11</v>
+      </c>
+      <c r="K87" s="1">
+        <v>6</v>
+      </c>
+      <c r="L87" s="1">
+        <v>100</v>
+      </c>
+      <c r="M87" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C88" s="1">
+        <v>54456550</v>
+      </c>
+      <c r="D88" s="1">
+        <v>9</v>
+      </c>
+      <c r="E88" s="1">
+        <v>7</v>
+      </c>
+      <c r="F88" s="1">
+        <v>7</v>
+      </c>
+      <c r="G88" s="1">
+        <v>4</v>
+      </c>
+      <c r="H88" s="1">
+        <v>7</v>
+      </c>
+      <c r="I88" s="1">
+        <v>7</v>
+      </c>
+      <c r="J88" s="1">
+        <v>11</v>
+      </c>
+      <c r="K88" s="1">
+        <v>6</v>
+      </c>
+      <c r="L88" s="1">
+        <v>100</v>
+      </c>
+      <c r="M88" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C89" s="1">
+        <v>58934560</v>
+      </c>
+      <c r="D89" s="1">
+        <v>9</v>
+      </c>
+      <c r="E89" s="1">
+        <v>7</v>
+      </c>
+      <c r="F89" s="1">
+        <v>7</v>
+      </c>
+      <c r="G89" s="1">
+        <v>4</v>
+      </c>
+      <c r="H89" s="1">
+        <v>7</v>
+      </c>
+      <c r="I89" s="1">
+        <v>7</v>
+      </c>
+      <c r="J89" s="1">
+        <v>11</v>
+      </c>
+      <c r="K89" s="1">
+        <v>6</v>
+      </c>
+      <c r="L89" s="1">
+        <v>100</v>
+      </c>
+      <c r="M89" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C90" s="1">
+        <v>63507670</v>
+      </c>
+      <c r="D90" s="1">
+        <v>9</v>
+      </c>
+      <c r="E90" s="1">
+        <v>7</v>
+      </c>
+      <c r="F90" s="1">
+        <v>7</v>
+      </c>
+      <c r="G90" s="1">
+        <v>4</v>
+      </c>
+      <c r="H90" s="1">
+        <v>7</v>
+      </c>
+      <c r="I90" s="1">
+        <v>7</v>
+      </c>
+      <c r="J90" s="1">
+        <v>11</v>
+      </c>
+      <c r="K90" s="1">
+        <v>6</v>
+      </c>
+      <c r="L90" s="1">
+        <v>100</v>
+      </c>
+      <c r="M90" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C91" s="1">
+        <v>68176530</v>
+      </c>
+      <c r="D91" s="1">
+        <v>9</v>
+      </c>
+      <c r="E91" s="1">
+        <v>7</v>
+      </c>
+      <c r="F91" s="1">
+        <v>7</v>
+      </c>
+      <c r="G91" s="1">
+        <v>4</v>
+      </c>
+      <c r="H91" s="1">
+        <v>7</v>
+      </c>
+      <c r="I91" s="1">
+        <v>7</v>
+      </c>
+      <c r="J91" s="1">
+        <v>11</v>
+      </c>
+      <c r="K91" s="1">
+        <v>6</v>
+      </c>
+      <c r="L91" s="1">
+        <v>100</v>
+      </c>
+      <c r="M91" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C92" s="1">
+        <v>72942520</v>
+      </c>
+      <c r="D92" s="1">
+        <v>9</v>
+      </c>
+      <c r="E92" s="1">
+        <v>7</v>
+      </c>
+      <c r="F92" s="1">
+        <v>7</v>
+      </c>
+      <c r="G92" s="1">
+        <v>4</v>
+      </c>
+      <c r="H92" s="1">
+        <v>7</v>
+      </c>
+      <c r="I92" s="1">
+        <v>7</v>
+      </c>
+      <c r="J92" s="1">
+        <v>11</v>
+      </c>
+      <c r="K92" s="1">
+        <v>6</v>
+      </c>
+      <c r="L92" s="1">
+        <v>100</v>
+      </c>
+      <c r="M92" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C93" s="1">
+        <v>78770580</v>
+      </c>
+      <c r="D93" s="1">
+        <v>9</v>
+      </c>
+      <c r="E93" s="1">
+        <v>7</v>
+      </c>
+      <c r="F93" s="1">
+        <v>7</v>
+      </c>
+      <c r="G93" s="1">
+        <v>4</v>
+      </c>
+      <c r="H93" s="1">
+        <v>7</v>
+      </c>
+      <c r="I93" s="1">
+        <v>7</v>
+      </c>
+      <c r="J93" s="1">
+        <v>11</v>
+      </c>
+      <c r="K93" s="1">
+        <v>7</v>
+      </c>
+      <c r="L93" s="1">
+        <v>100</v>
+      </c>
+      <c r="M93" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C94" s="1">
+        <v>84717440</v>
+      </c>
+      <c r="D94" s="1">
+        <v>9</v>
+      </c>
+      <c r="E94" s="1">
+        <v>7</v>
+      </c>
+      <c r="F94" s="1">
+        <v>7</v>
+      </c>
+      <c r="G94" s="1">
+        <v>4</v>
+      </c>
+      <c r="H94" s="1">
+        <v>7</v>
+      </c>
+      <c r="I94" s="1">
+        <v>7</v>
+      </c>
+      <c r="J94" s="1">
+        <v>11</v>
+      </c>
+      <c r="K94" s="1">
+        <v>7</v>
+      </c>
+      <c r="L94" s="1">
+        <v>100</v>
+      </c>
+      <c r="M94" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C95" s="1">
+        <v>91787620</v>
+      </c>
+      <c r="D95" s="1">
+        <v>9</v>
+      </c>
+      <c r="E95" s="1">
+        <v>7</v>
+      </c>
+      <c r="F95" s="1">
+        <v>7</v>
+      </c>
+      <c r="G95" s="1">
+        <v>4</v>
+      </c>
+      <c r="H95" s="1">
+        <v>7</v>
+      </c>
+      <c r="I95" s="1">
+        <v>7</v>
+      </c>
+      <c r="J95" s="1">
+        <v>11</v>
+      </c>
+      <c r="K95" s="1">
+        <v>7</v>
+      </c>
+      <c r="L95" s="1">
+        <v>100</v>
+      </c>
+      <c r="M95" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C96" s="1">
+        <v>98999080</v>
+      </c>
+      <c r="D96" s="1">
+        <v>9</v>
+      </c>
+      <c r="E96" s="1">
+        <v>7</v>
+      </c>
+      <c r="F96" s="1">
+        <v>7</v>
+      </c>
+      <c r="G96" s="1">
+        <v>4</v>
+      </c>
+      <c r="H96" s="1">
+        <v>7</v>
+      </c>
+      <c r="I96" s="1">
+        <v>7</v>
+      </c>
+      <c r="J96" s="1">
+        <v>11</v>
+      </c>
+      <c r="K96" s="1">
+        <v>7</v>
+      </c>
+      <c r="L96" s="1">
+        <v>100</v>
+      </c>
+      <c r="M96" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C97" s="1">
+        <v>106352750</v>
+      </c>
+      <c r="D97" s="1">
+        <v>9</v>
+      </c>
+      <c r="E97" s="1">
+        <v>7</v>
+      </c>
+      <c r="F97" s="1">
+        <v>7</v>
+      </c>
+      <c r="G97" s="1">
+        <v>4</v>
+      </c>
+      <c r="H97" s="1">
+        <v>7</v>
+      </c>
+      <c r="I97" s="1">
+        <v>7</v>
+      </c>
+      <c r="J97" s="1">
+        <v>11</v>
+      </c>
+      <c r="K97" s="1">
+        <v>7</v>
+      </c>
+      <c r="L97" s="1">
+        <v>100</v>
+      </c>
+      <c r="M97" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C98" s="1">
+        <v>113850540</v>
+      </c>
+      <c r="D98" s="1">
+        <v>9</v>
+      </c>
+      <c r="E98" s="1">
+        <v>7</v>
+      </c>
+      <c r="F98" s="1">
+        <v>7</v>
+      </c>
+      <c r="G98" s="1">
+        <v>4</v>
+      </c>
+      <c r="H98" s="1">
+        <v>7</v>
+      </c>
+      <c r="I98" s="1">
+        <v>7</v>
+      </c>
+      <c r="J98" s="1">
+        <v>11</v>
+      </c>
+      <c r="K98" s="1">
+        <v>7</v>
+      </c>
+      <c r="L98" s="1">
+        <v>100</v>
+      </c>
+      <c r="M98" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C99" s="1">
+        <v>122578350</v>
+      </c>
+      <c r="D99" s="1">
+        <v>9</v>
+      </c>
+      <c r="E99" s="1">
+        <v>7</v>
+      </c>
+      <c r="F99" s="1">
+        <v>7</v>
+      </c>
+      <c r="G99" s="1">
+        <v>4</v>
+      </c>
+      <c r="H99" s="1">
+        <v>7</v>
+      </c>
+      <c r="I99" s="1">
+        <v>7</v>
+      </c>
+      <c r="J99" s="1">
+        <v>11</v>
+      </c>
+      <c r="K99" s="1">
+        <v>7</v>
+      </c>
+      <c r="L99" s="1">
+        <v>100</v>
+      </c>
+      <c r="M99" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C100" s="1">
+        <v>131473980</v>
+      </c>
+      <c r="D100" s="1">
+        <v>9</v>
+      </c>
+      <c r="E100" s="1">
+        <v>7</v>
+      </c>
+      <c r="F100" s="1">
+        <v>7</v>
+      </c>
+      <c r="G100" s="1">
+        <v>4</v>
+      </c>
+      <c r="H100" s="1">
+        <v>7</v>
+      </c>
+      <c r="I100" s="1">
+        <v>7</v>
+      </c>
+      <c r="J100" s="1">
+        <v>11</v>
+      </c>
+      <c r="K100" s="1">
+        <v>7</v>
+      </c>
+      <c r="L100" s="1">
+        <v>100</v>
+      </c>
+      <c r="M100" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C101" s="1">
+        <v>140538470</v>
+      </c>
+      <c r="D101" s="1">
+        <v>9</v>
+      </c>
+      <c r="E101" s="1">
+        <v>7</v>
+      </c>
+      <c r="F101" s="1">
+        <v>7</v>
+      </c>
+      <c r="G101" s="1">
+        <v>4</v>
+      </c>
+      <c r="H101" s="1">
+        <v>7</v>
+      </c>
+      <c r="I101" s="1">
+        <v>7</v>
+      </c>
+      <c r="J101" s="1">
+        <v>11</v>
+      </c>
+      <c r="K101" s="1">
+        <v>7</v>
+      </c>
+      <c r="L101" s="1">
+        <v>100</v>
+      </c>
+      <c r="M101" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C102" s="1">
+        <v>150922080</v>
+      </c>
+      <c r="D102" s="1">
+        <v>9</v>
+      </c>
+      <c r="E102" s="1">
+        <v>7</v>
+      </c>
+      <c r="F102" s="1">
+        <v>7</v>
+      </c>
+      <c r="G102" s="1">
+        <v>4</v>
+      </c>
+      <c r="H102" s="1">
+        <v>7</v>
+      </c>
+      <c r="I102" s="1">
+        <v>7</v>
+      </c>
+      <c r="J102" s="1">
+        <v>11</v>
+      </c>
+      <c r="K102" s="1">
+        <v>7</v>
+      </c>
+      <c r="L102" s="1">
+        <v>100</v>
+      </c>
+      <c r="M102" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C103" s="1">
+        <v>161499180</v>
+      </c>
+      <c r="D103" s="1">
+        <v>9</v>
+      </c>
+      <c r="E103" s="1">
+        <v>7</v>
+      </c>
+      <c r="F103" s="1">
+        <v>7</v>
+      </c>
+      <c r="G103" s="1">
+        <v>5</v>
+      </c>
+      <c r="H103" s="1">
+        <v>7</v>
+      </c>
+      <c r="I103" s="1">
+        <v>7</v>
+      </c>
+      <c r="J103" s="1">
+        <v>11</v>
+      </c>
+      <c r="K103" s="1">
+        <v>7</v>
+      </c>
+      <c r="L103" s="1">
+        <v>100</v>
+      </c>
+      <c r="M103" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C104" s="1">
+        <v>172272230</v>
+      </c>
+      <c r="D104" s="1">
+        <v>9</v>
+      </c>
+      <c r="E104" s="1">
+        <v>7</v>
+      </c>
+      <c r="F104" s="1">
+        <v>7</v>
+      </c>
+      <c r="G104" s="1">
+        <v>5</v>
+      </c>
+      <c r="H104" s="1">
+        <v>7</v>
+      </c>
+      <c r="I104" s="1">
+        <v>7</v>
+      </c>
+      <c r="J104" s="1">
+        <v>11</v>
+      </c>
+      <c r="K104" s="1">
+        <v>7</v>
+      </c>
+      <c r="L104" s="1">
+        <v>100</v>
+      </c>
+      <c r="M104" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C105" s="1">
+        <v>183242420</v>
+      </c>
+      <c r="D105" s="1">
+        <v>9</v>
+      </c>
+      <c r="E105" s="1">
+        <v>7</v>
+      </c>
+      <c r="F105" s="1">
+        <v>7</v>
+      </c>
+      <c r="G105" s="1">
+        <v>5</v>
+      </c>
+      <c r="H105" s="1">
+        <v>7</v>
+      </c>
+      <c r="I105" s="1">
+        <v>7</v>
+      </c>
+      <c r="J105" s="1">
+        <v>11</v>
+      </c>
+      <c r="K105" s="1">
+        <v>7</v>
+      </c>
+      <c r="L105" s="1">
+        <v>100</v>
+      </c>
+      <c r="M105" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C106" s="1">
+        <v>194412200</v>
+      </c>
+      <c r="D106" s="1">
+        <v>9</v>
+      </c>
+      <c r="E106" s="1">
+        <v>7</v>
+      </c>
+      <c r="F106" s="1">
+        <v>7</v>
+      </c>
+      <c r="G106" s="1">
+        <v>5</v>
+      </c>
+      <c r="H106" s="1">
+        <v>7</v>
+      </c>
+      <c r="I106" s="1">
+        <v>7</v>
+      </c>
+      <c r="J106" s="1">
+        <v>11</v>
+      </c>
+      <c r="K106" s="1">
+        <v>7</v>
+      </c>
+      <c r="L106" s="1">
+        <v>100</v>
+      </c>
+      <c r="M106" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C107" s="1">
+        <v>207039920</v>
+      </c>
+      <c r="D107" s="1">
+        <v>9</v>
+      </c>
+      <c r="E107" s="1">
+        <v>7</v>
+      </c>
+      <c r="F107" s="1">
+        <v>7</v>
+      </c>
+      <c r="G107" s="1">
+        <v>5</v>
+      </c>
+      <c r="H107" s="1">
+        <v>7</v>
+      </c>
+      <c r="I107" s="1">
+        <v>7</v>
+      </c>
+      <c r="J107" s="1">
+        <v>11</v>
+      </c>
+      <c r="K107" s="1">
+        <v>7</v>
+      </c>
+      <c r="L107" s="1">
+        <v>100</v>
+      </c>
+      <c r="M107" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C108" s="1">
+        <v>219893320</v>
+      </c>
+      <c r="D108" s="1">
+        <v>9</v>
+      </c>
+      <c r="E108" s="1">
+        <v>7</v>
+      </c>
+      <c r="F108" s="1">
+        <v>7</v>
+      </c>
+      <c r="G108" s="1">
+        <v>5</v>
+      </c>
+      <c r="H108" s="1">
+        <v>7</v>
+      </c>
+      <c r="I108" s="1">
+        <v>7</v>
+      </c>
+      <c r="J108" s="1">
+        <v>11</v>
+      </c>
+      <c r="K108" s="1">
+        <v>7</v>
+      </c>
+      <c r="L108" s="1">
+        <v>100</v>
+      </c>
+      <c r="M108" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C109" s="1">
+        <v>232973740</v>
+      </c>
+      <c r="D109" s="1">
+        <v>9</v>
+      </c>
+      <c r="E109" s="1">
+        <v>7</v>
+      </c>
+      <c r="F109" s="1">
+        <v>7</v>
+      </c>
+      <c r="G109" s="1">
+        <v>5</v>
+      </c>
+      <c r="H109" s="1">
+        <v>7</v>
+      </c>
+      <c r="I109" s="1">
+        <v>7</v>
+      </c>
+      <c r="J109" s="1">
+        <v>11</v>
+      </c>
+      <c r="K109" s="1">
+        <v>7</v>
+      </c>
+      <c r="L109" s="1">
+        <v>100</v>
+      </c>
+      <c r="M109" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C110" s="1">
+        <v>247608980</v>
+      </c>
+      <c r="D110" s="1">
+        <v>9</v>
+      </c>
+      <c r="E110" s="1">
+        <v>7</v>
+      </c>
+      <c r="F110" s="1">
+        <v>7</v>
+      </c>
+      <c r="G110" s="1">
+        <v>5</v>
+      </c>
+      <c r="H110" s="1">
+        <v>7</v>
+      </c>
+      <c r="I110" s="1">
+        <v>7</v>
+      </c>
+      <c r="J110" s="1">
+        <v>11</v>
+      </c>
+      <c r="K110" s="1">
+        <v>7</v>
+      </c>
+      <c r="L110" s="1">
+        <v>100</v>
+      </c>
+      <c r="M110" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C111" s="1">
+        <v>262498270</v>
+      </c>
+      <c r="D111" s="1">
+        <v>9</v>
+      </c>
+      <c r="E111" s="1">
+        <v>7</v>
+      </c>
+      <c r="F111" s="1">
+        <v>7</v>
+      </c>
+      <c r="G111" s="1">
+        <v>5</v>
+      </c>
+      <c r="H111" s="1">
+        <v>7</v>
+      </c>
+      <c r="I111" s="1">
+        <v>7</v>
+      </c>
+      <c r="J111" s="1">
+        <v>11</v>
+      </c>
+      <c r="K111" s="1">
+        <v>7</v>
+      </c>
+      <c r="L111" s="1">
+        <v>100</v>
+      </c>
+      <c r="M111" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C112" s="1">
+        <v>277644610</v>
+      </c>
+      <c r="D112" s="1">
+        <v>9</v>
+      </c>
+      <c r="E112" s="1">
+        <v>7</v>
+      </c>
+      <c r="F112" s="1">
+        <v>7</v>
+      </c>
+      <c r="G112" s="1">
+        <v>5</v>
+      </c>
+      <c r="H112" s="1">
+        <v>7</v>
+      </c>
+      <c r="I112" s="1">
+        <v>7</v>
+      </c>
+      <c r="J112" s="1">
+        <v>11</v>
+      </c>
+      <c r="K112" s="1">
+        <v>7</v>
+      </c>
+      <c r="L112" s="1">
+        <v>100</v>
+      </c>
+      <c r="M112" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C113" s="1">
+        <v>294444180</v>
+      </c>
+      <c r="D113" s="1">
+        <v>9</v>
+      </c>
+      <c r="E113" s="1">
+        <v>7</v>
+      </c>
+      <c r="F113" s="1">
+        <v>7</v>
+      </c>
+      <c r="G113" s="1">
+        <v>5</v>
+      </c>
+      <c r="H113" s="1">
+        <v>7</v>
+      </c>
+      <c r="I113" s="1">
+        <v>7</v>
+      </c>
+      <c r="J113" s="1">
+        <v>11</v>
+      </c>
+      <c r="K113" s="1">
+        <v>7</v>
+      </c>
+      <c r="L113" s="1">
+        <v>100</v>
+      </c>
+      <c r="M113" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C114" s="1">
+        <v>311528910</v>
+      </c>
+      <c r="D114" s="1">
+        <v>9</v>
+      </c>
+      <c r="E114" s="1">
+        <v>7</v>
+      </c>
+      <c r="F114" s="1">
+        <v>7</v>
+      </c>
+      <c r="G114" s="1">
+        <v>5</v>
+      </c>
+      <c r="H114" s="1">
+        <v>7</v>
+      </c>
+      <c r="I114" s="1">
+        <v>7</v>
+      </c>
+      <c r="J114" s="1">
+        <v>11</v>
+      </c>
+      <c r="K114" s="1">
+        <v>7</v>
+      </c>
+      <c r="L114" s="1">
+        <v>100</v>
+      </c>
+      <c r="M114" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C115" s="1">
+        <v>328900400</v>
+      </c>
+      <c r="D115" s="1">
+        <v>9</v>
+      </c>
+      <c r="E115" s="1">
+        <v>7</v>
+      </c>
+      <c r="F115" s="1">
+        <v>7</v>
+      </c>
+      <c r="G115" s="1">
+        <v>5</v>
+      </c>
+      <c r="H115" s="1">
+        <v>7</v>
+      </c>
+      <c r="I115" s="1">
+        <v>7</v>
+      </c>
+      <c r="J115" s="1">
+        <v>11</v>
+      </c>
+      <c r="K115" s="1">
+        <v>7</v>
+      </c>
+      <c r="L115" s="1">
+        <v>100</v>
+      </c>
+      <c r="M115" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C116" s="1">
+        <v>348028180</v>
+      </c>
+      <c r="D116" s="1">
+        <v>9</v>
+      </c>
+      <c r="E116" s="1">
+        <v>7</v>
+      </c>
+      <c r="F116" s="1">
+        <v>7</v>
+      </c>
+      <c r="G116" s="1">
+        <v>5</v>
+      </c>
+      <c r="H116" s="1">
+        <v>7</v>
+      </c>
+      <c r="I116" s="1">
+        <v>7</v>
+      </c>
+      <c r="J116" s="1">
+        <v>11</v>
+      </c>
+      <c r="K116" s="1">
+        <v>7</v>
+      </c>
+      <c r="L116" s="1">
+        <v>100</v>
+      </c>
+      <c r="M116" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C117" s="1">
+        <v>367471770</v>
+      </c>
+      <c r="D117" s="1">
+        <v>9</v>
+      </c>
+      <c r="E117" s="1">
+        <v>7</v>
+      </c>
+      <c r="F117" s="1">
+        <v>7</v>
+      </c>
+      <c r="G117" s="1">
+        <v>5</v>
+      </c>
+      <c r="H117" s="1">
+        <v>7</v>
+      </c>
+      <c r="I117" s="1">
+        <v>7</v>
+      </c>
+      <c r="J117" s="1">
+        <v>11</v>
+      </c>
+      <c r="K117" s="1">
+        <v>7</v>
+      </c>
+      <c r="L117" s="1">
+        <v>100</v>
+      </c>
+      <c r="M117" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C118" s="1">
+        <v>388749650</v>
+      </c>
+      <c r="D118" s="1">
+        <v>9</v>
+      </c>
+      <c r="E118" s="1">
+        <v>7</v>
+      </c>
+      <c r="F118" s="1">
+        <v>7</v>
+      </c>
+      <c r="G118" s="1">
+        <v>5</v>
+      </c>
+      <c r="H118" s="1">
+        <v>7</v>
+      </c>
+      <c r="I118" s="1">
+        <v>7</v>
+      </c>
+      <c r="J118" s="1">
+        <v>11</v>
+      </c>
+      <c r="K118" s="1">
+        <v>7</v>
+      </c>
+      <c r="L118" s="1">
+        <v>100</v>
+      </c>
+      <c r="M118" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C119" s="1">
+        <v>410373190</v>
+      </c>
+      <c r="D119" s="1">
+        <v>9</v>
+      </c>
+      <c r="E119" s="1">
+        <v>7</v>
+      </c>
+      <c r="F119" s="1">
+        <v>7</v>
+      </c>
+      <c r="G119" s="1">
+        <v>5</v>
+      </c>
+      <c r="H119" s="1">
+        <v>7</v>
+      </c>
+      <c r="I119" s="1">
+        <v>7</v>
+      </c>
+      <c r="J119" s="1">
+        <v>11</v>
+      </c>
+      <c r="K119" s="1">
+        <v>7</v>
+      </c>
+      <c r="L119" s="1">
+        <v>100</v>
+      </c>
+      <c r="M119" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C120" s="1">
+        <v>433910650</v>
+      </c>
+      <c r="D120" s="1">
+        <v>9</v>
+      </c>
+      <c r="E120" s="1">
+        <v>7</v>
+      </c>
+      <c r="F120" s="1">
+        <v>7</v>
+      </c>
+      <c r="G120" s="1">
+        <v>5</v>
+      </c>
+      <c r="H120" s="1">
+        <v>7</v>
+      </c>
+      <c r="I120" s="1">
+        <v>7</v>
+      </c>
+      <c r="J120" s="1">
+        <v>11</v>
+      </c>
+      <c r="K120" s="1">
+        <v>7</v>
+      </c>
+      <c r="L120" s="1">
+        <v>100</v>
+      </c>
+      <c r="M120" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C121" s="1">
+        <v>457824420</v>
+      </c>
+      <c r="D121" s="1">
+        <v>9</v>
+      </c>
+      <c r="E121" s="1">
+        <v>7</v>
+      </c>
+      <c r="F121" s="1">
+        <v>7</v>
+      </c>
+      <c r="G121" s="1">
+        <v>5</v>
+      </c>
+      <c r="H121" s="1">
+        <v>7</v>
+      </c>
+      <c r="I121" s="1">
+        <v>7</v>
+      </c>
+      <c r="J121" s="1">
+        <v>11</v>
+      </c>
+      <c r="K121" s="1">
+        <v>7</v>
+      </c>
+      <c r="L121" s="1">
+        <v>100</v>
+      </c>
+      <c r="M121" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C122" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>100</v>
-      </c>
-      <c r="M3" s="2">
-        <v>100</v>
-      </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="2">
-        <v>500</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2">
-        <v>3</v>
-      </c>
-      <c r="G4" s="2">
-        <v>3</v>
-      </c>
-      <c r="H4" s="2">
-        <v>3</v>
-      </c>
-      <c r="I4" s="2">
-        <v>3</v>
-      </c>
-      <c r="J4" s="2">
-        <v>3</v>
-      </c>
-      <c r="K4" s="2">
-        <v>3</v>
-      </c>
-      <c r="L4" s="2">
-        <v>100</v>
-      </c>
-      <c r="M4" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="2">
-        <v>800</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2</v>
-      </c>
-      <c r="F5" s="2">
-        <v>2</v>
-      </c>
-      <c r="G5" s="2">
-        <v>2</v>
-      </c>
-      <c r="H5" s="2">
-        <v>2</v>
-      </c>
-      <c r="I5" s="2">
-        <v>2</v>
-      </c>
-      <c r="J5" s="2">
-        <v>2</v>
-      </c>
-      <c r="K5" s="2">
-        <v>2</v>
-      </c>
-      <c r="L5" s="2">
-        <v>100</v>
-      </c>
-      <c r="M5" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="D122" s="1">
+        <v>9</v>
+      </c>
+      <c r="E122" s="1">
+        <v>7</v>
+      </c>
+      <c r="F122" s="1">
+        <v>7</v>
+      </c>
+      <c r="G122" s="1">
+        <v>5</v>
+      </c>
+      <c r="H122" s="1">
+        <v>7</v>
+      </c>
+      <c r="I122" s="1">
+        <v>7</v>
+      </c>
+      <c r="J122" s="1">
+        <v>11</v>
+      </c>
+      <c r="K122" s="1">
+        <v>7</v>
+      </c>
+      <c r="L122" s="1">
+        <v>100</v>
+      </c>
+      <c r="M122" s="1">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -882,6 +5906,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -898,16 +5923,16 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>25</v>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -927,6 +5952,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -942,15 +5968,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>24</v>
+      <c r="A3" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>

--- a/xls/cardLevelUpgradeConfig.xlsx
+++ b/xls/cardLevelUpgradeConfig.xlsx
@@ -544,15 +544,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -560,14 +566,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -875,8 +898,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C121"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -984,7 +1007,7 @@
       <c r="B3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>30</v>
       </c>
       <c r="D3" s="1">
@@ -1025,8 +1048,8 @@
       <c r="B4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="1">
-        <v>80</v>
+      <c r="C4" s="3">
+        <v>50</v>
       </c>
       <c r="D4" s="1">
         <v>8</v>
@@ -1066,8 +1089,8 @@
       <c r="B5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="1">
-        <v>170</v>
+      <c r="C5" s="3">
+        <v>90</v>
       </c>
       <c r="D5" s="1">
         <v>8</v>
@@ -1107,8 +1130,8 @@
       <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="1">
-        <v>300</v>
+      <c r="C6" s="3">
+        <v>130</v>
       </c>
       <c r="D6" s="1">
         <v>8</v>
@@ -1148,8 +1171,8 @@
       <c r="B7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="1">
-        <v>490</v>
+      <c r="C7" s="3">
+        <v>190</v>
       </c>
       <c r="D7" s="1">
         <v>8</v>
@@ -1189,8 +1212,8 @@
       <c r="B8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="1">
-        <v>740</v>
+      <c r="C8" s="3">
+        <v>250</v>
       </c>
       <c r="D8" s="1">
         <v>8</v>
@@ -1230,8 +1253,8 @@
       <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="1">
-        <v>1070</v>
+      <c r="C9" s="3">
+        <v>330</v>
       </c>
       <c r="D9" s="1">
         <v>8</v>
@@ -1271,8 +1294,8 @@
       <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="1">
-        <v>1480</v>
+      <c r="C10" s="3">
+        <v>410</v>
       </c>
       <c r="D10" s="1">
         <v>8</v>
@@ -1312,8 +1335,8 @@
       <c r="B11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="1">
-        <v>1990</v>
+      <c r="C11" s="3">
+        <v>510</v>
       </c>
       <c r="D11" s="1">
         <v>8</v>
@@ -1353,8 +1376,8 @@
       <c r="B12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="1">
-        <v>4120</v>
+      <c r="C12" s="3">
+        <v>2130</v>
       </c>
       <c r="D12" s="1">
         <v>8</v>
@@ -1394,8 +1417,8 @@
       <c r="B13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="1">
-        <v>6480</v>
+      <c r="C13" s="3">
+        <v>2360</v>
       </c>
       <c r="D13" s="1">
         <v>8</v>
@@ -1435,8 +1458,8 @@
       <c r="B14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="1">
-        <v>9080</v>
+      <c r="C14" s="3">
+        <v>2600</v>
       </c>
       <c r="D14" s="1">
         <v>8</v>
@@ -1476,8 +1499,8 @@
       <c r="B15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="1">
-        <v>11950</v>
+      <c r="C15" s="3">
+        <v>2870</v>
       </c>
       <c r="D15" s="1">
         <v>8</v>
@@ -1517,8 +1540,8 @@
       <c r="B16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="1">
-        <v>15100</v>
+      <c r="C16" s="3">
+        <v>3150</v>
       </c>
       <c r="D16" s="1">
         <v>8</v>
@@ -1558,8 +1581,8 @@
       <c r="B17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="1">
-        <v>18540</v>
+      <c r="C17" s="3">
+        <v>3440</v>
       </c>
       <c r="D17" s="1">
         <v>8</v>
@@ -1599,8 +1622,8 @@
       <c r="B18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="1">
-        <v>22300</v>
+      <c r="C18" s="3">
+        <v>3760</v>
       </c>
       <c r="D18" s="1">
         <v>8</v>
@@ -1640,8 +1663,8 @@
       <c r="B19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="1">
-        <v>26390</v>
+      <c r="C19" s="3">
+        <v>4090</v>
       </c>
       <c r="D19" s="1">
         <v>8</v>
@@ -1681,8 +1704,8 @@
       <c r="B20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="1">
-        <v>30830</v>
+      <c r="C20" s="3">
+        <v>4440</v>
       </c>
       <c r="D20" s="1">
         <v>8</v>
@@ -1722,8 +1745,8 @@
       <c r="B21" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="1">
-        <v>35630</v>
+      <c r="C21" s="3">
+        <v>4800</v>
       </c>
       <c r="D21" s="1">
         <v>8</v>
@@ -1763,8 +1786,8 @@
       <c r="B22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="1">
-        <v>40810</v>
+      <c r="C22" s="3">
+        <v>5180</v>
       </c>
       <c r="D22" s="1">
         <v>8</v>
@@ -1804,8 +1827,8 @@
       <c r="B23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="1">
-        <v>46390</v>
+      <c r="C23" s="3">
+        <v>5580</v>
       </c>
       <c r="D23" s="1">
         <v>8</v>
@@ -1845,8 +1868,8 @@
       <c r="B24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="1">
-        <v>52390</v>
+      <c r="C24" s="3">
+        <v>6000</v>
       </c>
       <c r="D24" s="1">
         <v>8</v>
@@ -1886,8 +1909,8 @@
       <c r="B25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="1">
-        <v>58820</v>
+      <c r="C25" s="3">
+        <v>6430</v>
       </c>
       <c r="D25" s="1">
         <v>8</v>
@@ -1927,8 +1950,8 @@
       <c r="B26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="1">
-        <v>65700</v>
+      <c r="C26" s="3">
+        <v>6880</v>
       </c>
       <c r="D26" s="1">
         <v>8</v>
@@ -1968,8 +1991,8 @@
       <c r="B27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="1">
-        <v>73040</v>
+      <c r="C27" s="3">
+        <v>7340</v>
       </c>
       <c r="D27" s="1">
         <v>8</v>
@@ -2009,8 +2032,8 @@
       <c r="B28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="1">
-        <v>80870</v>
+      <c r="C28" s="3">
+        <v>7830</v>
       </c>
       <c r="D28" s="1">
         <v>8</v>
@@ -2050,8 +2073,8 @@
       <c r="B29" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="1">
-        <v>89200</v>
+      <c r="C29" s="3">
+        <v>8330</v>
       </c>
       <c r="D29" s="1">
         <v>8</v>
@@ -2091,8 +2114,8 @@
       <c r="B30" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="1">
-        <v>98050</v>
+      <c r="C30" s="3">
+        <v>8850</v>
       </c>
       <c r="D30" s="1">
         <v>8</v>
@@ -2132,8 +2155,8 @@
       <c r="B31" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="1">
-        <v>115410</v>
+      <c r="C31" s="3">
+        <v>17360</v>
       </c>
       <c r="D31" s="1">
         <v>8</v>
@@ -2173,8 +2196,8 @@
       <c r="B32" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="1">
-        <v>133720</v>
+      <c r="C32" s="3">
+        <v>18310</v>
       </c>
       <c r="D32" s="1">
         <v>8</v>
@@ -2214,8 +2237,8 @@
       <c r="B33" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="1">
-        <v>153010</v>
+      <c r="C33" s="3">
+        <v>19290</v>
       </c>
       <c r="D33" s="1">
         <v>8</v>
@@ -2255,8 +2278,8 @@
       <c r="B34" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="1">
-        <v>173310</v>
+      <c r="C34" s="3">
+        <v>20300</v>
       </c>
       <c r="D34" s="1">
         <v>8</v>
@@ -2296,8 +2319,8 @@
       <c r="B35" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="1">
-        <v>194650</v>
+      <c r="C35" s="3">
+        <v>21340</v>
       </c>
       <c r="D35" s="1">
         <v>8</v>
@@ -2337,8 +2360,8 @@
       <c r="B36" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="1">
-        <v>217060</v>
+      <c r="C36" s="3">
+        <v>22410</v>
       </c>
       <c r="D36" s="1">
         <v>8</v>
@@ -2378,8 +2401,8 @@
       <c r="B37" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="1">
-        <v>240560</v>
+      <c r="C37" s="3">
+        <v>23500</v>
       </c>
       <c r="D37" s="1">
         <v>8</v>
@@ -2419,8 +2442,8 @@
       <c r="B38" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="1">
-        <v>265190</v>
+      <c r="C38" s="3">
+        <v>24630</v>
       </c>
       <c r="D38" s="1">
         <v>8</v>
@@ -2460,8 +2483,8 @@
       <c r="B39" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C39" s="1">
-        <v>290970</v>
+      <c r="C39" s="3">
+        <v>25780</v>
       </c>
       <c r="D39" s="1">
         <v>8</v>
@@ -2501,8 +2524,8 @@
       <c r="B40" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="1">
-        <v>317930</v>
+      <c r="C40" s="3">
+        <v>26960</v>
       </c>
       <c r="D40" s="1">
         <v>8</v>
@@ -2542,8 +2565,8 @@
       <c r="B41" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="1">
-        <v>346100</v>
+      <c r="C41" s="3">
+        <v>28170</v>
       </c>
       <c r="D41" s="1">
         <v>8</v>
@@ -2583,8 +2606,8 @@
       <c r="B42" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="1">
-        <v>400700</v>
+      <c r="C42" s="3">
+        <v>54600</v>
       </c>
       <c r="D42" s="1">
         <v>8</v>
@@ -2624,8 +2647,8 @@
       <c r="B43" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C43" s="1">
-        <v>457580</v>
+      <c r="C43" s="3">
+        <v>56880</v>
       </c>
       <c r="D43" s="1">
         <v>8</v>
@@ -2665,8 +2688,8 @@
       <c r="B44" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="1">
-        <v>516800</v>
+      <c r="C44" s="3">
+        <v>59220</v>
       </c>
       <c r="D44" s="1">
         <v>8</v>
@@ -2706,8 +2729,8 @@
       <c r="B45" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C45" s="1">
-        <v>578400</v>
+      <c r="C45" s="3">
+        <v>61600</v>
       </c>
       <c r="D45" s="1">
         <v>8</v>
@@ -2747,8 +2770,8 @@
       <c r="B46" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C46" s="1">
-        <v>642440</v>
+      <c r="C46" s="3">
+        <v>64040</v>
       </c>
       <c r="D46" s="1">
         <v>8</v>
@@ -2788,8 +2811,8 @@
       <c r="B47" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C47" s="1">
-        <v>722950</v>
+      <c r="C47" s="3">
+        <v>80510</v>
       </c>
       <c r="D47" s="1">
         <v>8</v>
@@ -2829,8 +2852,8 @@
       <c r="B48" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C48" s="1">
-        <v>806520</v>
+      <c r="C48" s="3">
+        <v>83570</v>
       </c>
       <c r="D48" s="1">
         <v>8</v>
@@ -2870,8 +2893,8 @@
       <c r="B49" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C49" s="1">
-        <v>893190</v>
+      <c r="C49" s="3">
+        <v>86670</v>
       </c>
       <c r="D49" s="1">
         <v>8</v>
@@ -2911,8 +2934,8 @@
       <c r="B50" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C50" s="1">
-        <v>983050</v>
+      <c r="C50" s="3">
+        <v>89860</v>
       </c>
       <c r="D50" s="1">
         <v>8</v>
@@ -2952,8 +2975,8 @@
       <c r="B51" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C51" s="1">
-        <v>1102990</v>
+      <c r="C51" s="3">
+        <v>119940</v>
       </c>
       <c r="D51" s="1">
         <v>8</v>
@@ -2993,8 +3016,8 @@
       <c r="B52" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C52" s="1">
-        <v>1227170</v>
+      <c r="C52" s="3">
+        <v>124180</v>
       </c>
       <c r="D52" s="1">
         <v>8</v>
@@ -3034,8 +3057,8 @@
       <c r="B53" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C53" s="1">
-        <v>1355640</v>
+      <c r="C53" s="3">
+        <v>128470</v>
       </c>
       <c r="D53" s="1">
         <v>8</v>
@@ -3075,8 +3098,8 @@
       <c r="B54" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C54" s="1">
-        <v>1547910</v>
+      <c r="C54" s="3">
+        <v>192270</v>
       </c>
       <c r="D54" s="1">
         <v>8</v>
@@ -3116,8 +3139,8 @@
       <c r="B55" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C55" s="1">
-        <v>1746580</v>
+      <c r="C55" s="3">
+        <v>198670</v>
       </c>
       <c r="D55" s="1">
         <v>8</v>
@@ -3157,8 +3180,8 @@
       <c r="B56" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C56" s="1">
-        <v>1951790</v>
+      <c r="C56" s="3">
+        <v>205210</v>
       </c>
       <c r="D56" s="1">
         <v>8</v>
@@ -3198,8 +3221,8 @@
       <c r="B57" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C57" s="1">
-        <v>2163620</v>
+      <c r="C57" s="3">
+        <v>211830</v>
       </c>
       <c r="D57" s="1">
         <v>8</v>
@@ -3239,8 +3262,8 @@
       <c r="B58" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C58" s="1">
-        <v>2382220</v>
+      <c r="C58" s="3">
+        <v>218600</v>
       </c>
       <c r="D58" s="1">
         <v>8</v>
@@ -3280,8 +3303,8 @@
       <c r="B59" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C59" s="1">
-        <v>2607660</v>
+      <c r="C59" s="3">
+        <v>225440</v>
       </c>
       <c r="D59" s="1">
         <v>8</v>
@@ -3321,8 +3344,8 @@
       <c r="B60" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C60" s="1">
-        <v>2840090</v>
+      <c r="C60" s="3">
+        <v>232430</v>
       </c>
       <c r="D60" s="1">
         <v>8</v>
@@ -3362,8 +3385,8 @@
       <c r="B61" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C61" s="1">
-        <v>3079580</v>
+      <c r="C61" s="3">
+        <v>239490</v>
       </c>
       <c r="D61" s="1">
         <v>8</v>
@@ -3403,8 +3426,8 @@
       <c r="B62" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C62" s="1">
-        <v>3554370</v>
+      <c r="C62" s="3">
+        <v>474790</v>
       </c>
       <c r="D62" s="1">
         <v>8</v>
@@ -3444,8 +3467,8 @@
       <c r="B63" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C63" s="1">
-        <v>4043110</v>
+      <c r="C63" s="3">
+        <v>488740</v>
       </c>
       <c r="D63" s="1">
         <v>8</v>
@@ -3485,8 +3508,8 @@
       <c r="B64" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C64" s="1">
-        <v>4546090</v>
+      <c r="C64" s="3">
+        <v>502980</v>
       </c>
       <c r="D64" s="1">
         <v>8</v>
@@ -3526,8 +3549,8 @@
       <c r="B65" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C65" s="1">
-        <v>5063440</v>
+      <c r="C65" s="3">
+        <v>517350</v>
       </c>
       <c r="D65" s="1">
         <v>8</v>
@@ -3567,8 +3590,8 @@
       <c r="B66" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C66" s="1">
-        <v>5595450</v>
+      <c r="C66" s="3">
+        <v>532010</v>
       </c>
       <c r="D66" s="1">
         <v>8</v>
@@ -3608,8 +3631,8 @@
       <c r="B67" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C67" s="1">
-        <v>6142260</v>
+      <c r="C67" s="3">
+        <v>546810</v>
       </c>
       <c r="D67" s="1">
         <v>8</v>
@@ -3649,8 +3672,8 @@
       <c r="B68" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C68" s="1">
-        <v>6704150</v>
+      <c r="C68" s="3">
+        <v>561890</v>
       </c>
       <c r="D68" s="1">
         <v>8</v>
@@ -3690,8 +3713,8 @@
       <c r="B69" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C69" s="1">
-        <v>7281260</v>
+      <c r="C69" s="3">
+        <v>577110</v>
       </c>
       <c r="D69" s="1">
         <v>8</v>
@@ -3731,8 +3754,8 @@
       <c r="B70" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C70" s="1">
-        <v>8442680</v>
+      <c r="C70" s="3">
+        <v>1161420</v>
       </c>
       <c r="D70" s="1">
         <v>8</v>
@@ -3772,8 +3795,8 @@
       <c r="B71" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C71" s="1">
-        <v>9634690</v>
+      <c r="C71" s="3">
+        <v>1192010</v>
       </c>
       <c r="D71" s="1">
         <v>8</v>
@@ -3813,8 +3836,8 @@
       <c r="B72" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C72" s="1">
-        <v>10857840</v>
+      <c r="C72" s="3">
+        <v>1223150</v>
       </c>
       <c r="D72" s="1">
         <v>8</v>
@@ -3854,8 +3877,8 @@
       <c r="B73" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C73" s="1">
-        <v>12112410</v>
+      <c r="C73" s="3">
+        <v>1254570</v>
       </c>
       <c r="D73" s="1">
         <v>8</v>
@@ -3895,8 +3918,8 @@
       <c r="B74" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C74" s="1">
-        <v>13398950</v>
+      <c r="C74" s="3">
+        <v>1286540</v>
       </c>
       <c r="D74" s="1">
         <v>8</v>
@@ -3936,8 +3959,8 @@
       <c r="B75" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C75" s="1">
-        <v>15363430</v>
+      <c r="C75" s="3">
+        <v>1964480</v>
       </c>
       <c r="D75" s="1">
         <v>8</v>
@@ -3977,8 +4000,8 @@
       <c r="B76" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C76" s="1">
-        <v>17376720</v>
+      <c r="C76" s="3">
+        <v>2013290</v>
       </c>
       <c r="D76" s="1">
         <v>8</v>
@@ -4018,8 +4041,8 @@
       <c r="B77" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C77" s="1">
-        <v>19439240</v>
+      <c r="C77" s="3">
+        <v>2062520</v>
       </c>
       <c r="D77" s="1">
         <v>8</v>
@@ -4059,8 +4082,8 @@
       <c r="B78" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C78" s="1">
-        <v>21551800</v>
+      <c r="C78" s="3">
+        <v>2112560</v>
       </c>
       <c r="D78" s="1">
         <v>8</v>
@@ -4100,8 +4123,8 @@
       <c r="B79" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C79" s="1">
-        <v>23714810</v>
+      <c r="C79" s="3">
+        <v>2163010</v>
       </c>
       <c r="D79" s="1">
         <v>8</v>
@@ -4141,8 +4164,8 @@
       <c r="B80" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C80" s="1">
-        <v>26656780</v>
+      <c r="C80" s="3">
+        <v>2941970</v>
       </c>
       <c r="D80" s="1">
         <v>8</v>
@@ -4182,8 +4205,8 @@
       <c r="B81" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C81" s="1">
-        <v>29667390</v>
+      <c r="C81" s="3">
+        <v>3010610</v>
       </c>
       <c r="D81" s="1">
         <v>8</v>
@@ -4223,8 +4246,8 @@
       <c r="B82" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C82" s="1">
-        <v>32747730</v>
+      <c r="C82" s="3">
+        <v>3080340</v>
       </c>
       <c r="D82" s="1">
         <v>8</v>
@@ -4264,8 +4287,8 @@
       <c r="B83" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C83" s="1">
-        <v>35898340</v>
+      <c r="C83" s="3">
+        <v>3150610</v>
       </c>
       <c r="D83" s="1">
         <v>9</v>
@@ -4305,8 +4328,8 @@
       <c r="B84" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C84" s="1">
-        <v>39120310</v>
+      <c r="C84" s="3">
+        <v>3221970</v>
       </c>
       <c r="D84" s="1">
         <v>9</v>
@@ -4346,8 +4369,8 @@
       <c r="B85" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C85" s="1">
-        <v>42414180</v>
+      <c r="C85" s="3">
+        <v>3293870</v>
       </c>
       <c r="D85" s="1">
         <v>9</v>
@@ -4387,8 +4410,8 @@
       <c r="B86" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C86" s="1">
-        <v>45781030</v>
+      <c r="C86" s="3">
+        <v>3366850</v>
       </c>
       <c r="D86" s="1">
         <v>9</v>
@@ -4428,8 +4451,8 @@
       <c r="B87" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C87" s="1">
-        <v>50072260</v>
+      <c r="C87" s="3">
+        <v>4291230</v>
       </c>
       <c r="D87" s="1">
         <v>9</v>
@@ -4469,8 +4492,8 @@
       <c r="B88" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C88" s="1">
-        <v>54456550</v>
+      <c r="C88" s="3">
+        <v>4384290</v>
       </c>
       <c r="D88" s="1">
         <v>9</v>
@@ -4510,8 +4533,8 @@
       <c r="B89" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C89" s="1">
-        <v>58934560</v>
+      <c r="C89" s="3">
+        <v>4478010</v>
       </c>
       <c r="D89" s="1">
         <v>9</v>
@@ -4551,8 +4574,8 @@
       <c r="B90" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C90" s="1">
-        <v>63507670</v>
+      <c r="C90" s="3">
+        <v>4573110</v>
       </c>
       <c r="D90" s="1">
         <v>9</v>
@@ -4592,8 +4615,8 @@
       <c r="B91" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C91" s="1">
-        <v>68176530</v>
+      <c r="C91" s="3">
+        <v>4668860</v>
       </c>
       <c r="D91" s="1">
         <v>9</v>
@@ -4633,8 +4656,8 @@
       <c r="B92" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C92" s="1">
-        <v>72942520</v>
+      <c r="C92" s="3">
+        <v>4765990</v>
       </c>
       <c r="D92" s="1">
         <v>9</v>
@@ -4674,8 +4697,8 @@
       <c r="B93" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C93" s="1">
-        <v>78770580</v>
+      <c r="C93" s="3">
+        <v>5828060</v>
       </c>
       <c r="D93" s="1">
         <v>9</v>
@@ -4715,8 +4738,8 @@
       <c r="B94" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C94" s="1">
-        <v>84717440</v>
+      <c r="C94" s="3">
+        <v>5946860</v>
       </c>
       <c r="D94" s="1">
         <v>9</v>
@@ -4756,8 +4779,8 @@
       <c r="B95" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C95" s="1">
-        <v>91787620</v>
+      <c r="C95" s="3">
+        <v>7070180</v>
       </c>
       <c r="D95" s="1">
         <v>9</v>
@@ -4797,8 +4820,8 @@
       <c r="B96" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C96" s="1">
-        <v>98999080</v>
+      <c r="C96" s="3">
+        <v>7211460</v>
       </c>
       <c r="D96" s="1">
         <v>9</v>
@@ -4838,8 +4861,8 @@
       <c r="B97" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C97" s="1">
-        <v>106352750</v>
+      <c r="C97" s="3">
+        <v>7353670</v>
       </c>
       <c r="D97" s="1">
         <v>9</v>
@@ -4879,8 +4902,8 @@
       <c r="B98" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C98" s="1">
-        <v>113850540</v>
+      <c r="C98" s="3">
+        <v>7497790</v>
       </c>
       <c r="D98" s="1">
         <v>9</v>
@@ -4920,8 +4943,8 @@
       <c r="B99" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C99" s="1">
-        <v>122578350</v>
+      <c r="C99" s="3">
+        <v>8727810</v>
       </c>
       <c r="D99" s="1">
         <v>9</v>
@@ -4961,8 +4984,8 @@
       <c r="B100" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C100" s="1">
-        <v>131473980</v>
+      <c r="C100" s="3">
+        <v>8895630</v>
       </c>
       <c r="D100" s="1">
         <v>9</v>
@@ -5002,8 +5025,8 @@
       <c r="B101" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C101" s="1">
-        <v>140538470</v>
+      <c r="C101" s="3">
+        <v>9064490</v>
       </c>
       <c r="D101" s="1">
         <v>9</v>
@@ -5043,8 +5066,8 @@
       <c r="B102" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C102" s="1">
-        <v>150922080</v>
+      <c r="C102" s="3">
+        <v>10383610</v>
       </c>
       <c r="D102" s="1">
         <v>9</v>
@@ -5084,8 +5107,8 @@
       <c r="B103" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C103" s="1">
-        <v>161499180</v>
+      <c r="C103" s="3">
+        <v>10577100</v>
       </c>
       <c r="D103" s="1">
         <v>9</v>
@@ -5125,8 +5148,8 @@
       <c r="B104" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C104" s="1">
-        <v>172272230</v>
+      <c r="C104" s="3">
+        <v>10773050</v>
       </c>
       <c r="D104" s="1">
         <v>9</v>
@@ -5166,8 +5189,8 @@
       <c r="B105" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C105" s="1">
-        <v>183242420</v>
+      <c r="C105" s="3">
+        <v>10970190</v>
       </c>
       <c r="D105" s="1">
         <v>9</v>
@@ -5207,8 +5230,8 @@
       <c r="B106" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C106" s="1">
-        <v>194412200</v>
+      <c r="C106" s="3">
+        <v>11169780</v>
       </c>
       <c r="D106" s="1">
         <v>9</v>
@@ -5248,8 +5271,8 @@
       <c r="B107" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C107" s="1">
-        <v>207039920</v>
+      <c r="C107" s="3">
+        <v>12627720</v>
       </c>
       <c r="D107" s="1">
         <v>9</v>
@@ -5289,8 +5312,8 @@
       <c r="B108" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C108" s="1">
-        <v>219893320</v>
+      <c r="C108" s="3">
+        <v>12853400</v>
       </c>
       <c r="D108" s="1">
         <v>9</v>
@@ -5330,8 +5353,8 @@
       <c r="B109" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C109" s="1">
-        <v>232973740</v>
+      <c r="C109" s="3">
+        <v>13080420</v>
       </c>
       <c r="D109" s="1">
         <v>9</v>
@@ -5371,8 +5394,8 @@
       <c r="B110" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C110" s="1">
-        <v>247608980</v>
+      <c r="C110" s="3">
+        <v>14635240</v>
       </c>
       <c r="D110" s="1">
         <v>9</v>
@@ -5412,8 +5435,8 @@
       <c r="B111" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C111" s="1">
-        <v>262498270</v>
+      <c r="C111" s="3">
+        <v>14889290</v>
       </c>
       <c r="D111" s="1">
         <v>9</v>
@@ -5453,8 +5476,8 @@
       <c r="B112" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C112" s="1">
-        <v>277644610</v>
+      <c r="C112" s="3">
+        <v>15146340</v>
       </c>
       <c r="D112" s="1">
         <v>9</v>
@@ -5494,8 +5517,8 @@
       <c r="B113" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C113" s="1">
-        <v>294444180</v>
+      <c r="C113" s="3">
+        <v>16799570</v>
       </c>
       <c r="D113" s="1">
         <v>9</v>
@@ -5535,8 +5558,8 @@
       <c r="B114" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C114" s="1">
-        <v>311528910</v>
+      <c r="C114" s="3">
+        <v>17084730</v>
       </c>
       <c r="D114" s="1">
         <v>9</v>
@@ -5576,8 +5599,8 @@
       <c r="B115" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C115" s="1">
-        <v>328900400</v>
+      <c r="C115" s="3">
+        <v>17371490</v>
       </c>
       <c r="D115" s="1">
         <v>9</v>
@@ -5617,8 +5640,8 @@
       <c r="B116" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C116" s="1">
-        <v>348028180</v>
+      <c r="C116" s="3">
+        <v>19127780</v>
       </c>
       <c r="D116" s="1">
         <v>9</v>
@@ -5658,8 +5681,8 @@
       <c r="B117" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C117" s="1">
-        <v>367471770</v>
+      <c r="C117" s="3">
+        <v>19443590</v>
       </c>
       <c r="D117" s="1">
         <v>9</v>
@@ -5699,8 +5722,8 @@
       <c r="B118" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C118" s="1">
-        <v>388749650</v>
+      <c r="C118" s="3">
+        <v>21277880</v>
       </c>
       <c r="D118" s="1">
         <v>9</v>
@@ -5740,8 +5763,8 @@
       <c r="B119" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C119" s="1">
-        <v>410373190</v>
+      <c r="C119" s="3">
+        <v>21623540</v>
       </c>
       <c r="D119" s="1">
         <v>9</v>
@@ -5781,8 +5804,8 @@
       <c r="B120" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C120" s="1">
-        <v>433910650</v>
+      <c r="C120" s="3">
+        <v>23537460</v>
       </c>
       <c r="D120" s="1">
         <v>9</v>
@@ -5822,8 +5845,8 @@
       <c r="B121" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C121" s="1">
-        <v>457824420</v>
+      <c r="C121" s="3">
+        <v>23913770</v>
       </c>
       <c r="D121" s="1">
         <v>9</v>
@@ -5863,7 +5886,7 @@
       <c r="B122" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C122" s="1">
+      <c r="C122" s="4">
         <v>0</v>
       </c>
       <c r="D122" s="1">
